--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF878A12-1D13-44DF-B9C2-AAA2C68A84B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D318BE-741C-45EC-9273-8E887E8A7849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="46695" yWindow="6345" windowWidth="21600" windowHeight="11385" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>BET</t>
   </si>
   <si>
-    <t>RunID</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>200_MNP_BALF100%</t>
+  </si>
+  <si>
+    <t>NPUNID</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,13 +520,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1178,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1384,10 +1384,10 @@
         <v>-21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>378</v>
@@ -1414,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1425,10 +1425,10 @@
         <v>-52</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>800</v>
@@ -1455,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1466,10 +1466,10 @@
         <v>-11</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>579</v>
@@ -1496,7 +1496,7 @@
         <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D318BE-741C-45EC-9273-8E887E8A7849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231B928F-8C42-46DF-AEEC-7A279088447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46695" yWindow="6345" windowWidth="21600" windowHeight="11385" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>NPID</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>Carboxylate BSA</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Polystyrene</t>
@@ -509,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -520,13 +514,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1178,7 +1172,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1190,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1212,11 +1206,11 @@
       <c r="G2">
         <v>230</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>3.2</v>
@@ -1231,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1242,19 +1236,22 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>353.9</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1266,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1278,19 +1275,22 @@
         <v>-24.333333333333332</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>1421</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1302,7 +1302,7 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1314,19 +1314,22 @@
         <v>-24.333333333333332</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>2562</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1338,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1349,19 +1352,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>2083</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -1373,7 +1379,7 @@
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1384,10 +1390,10 @@
         <v>-21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>378</v>
@@ -1395,11 +1401,11 @@
       <c r="G7">
         <v>410</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7">
         <v>62.5</v>
@@ -1414,7 +1420,7 @@
         <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1425,10 +1431,10 @@
         <v>-52</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>800</v>
@@ -1436,11 +1442,11 @@
       <c r="G8">
         <v>680</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8">
         <v>125</v>
@@ -1455,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1466,10 +1472,10 @@
         <v>-11</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>579</v>
@@ -1477,11 +1483,11 @@
       <c r="G9">
         <v>441</v>
       </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9">
         <v>200</v>
@@ -1496,7 +1502,7 @@
         <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1518,11 +1524,11 @@
       <c r="G10">
         <v>230</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>25</v>
@@ -1537,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231B928F-8C42-46DF-AEEC-7A279088447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAA91D4-1298-4257-8020-91A5A5344174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -165,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,8 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1248,10 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="1">
+        <v>188</v>
+      </c>
+      <c r="G3" s="1">
         <v>353.9</v>
       </c>
       <c r="H3">
@@ -1280,7 +1290,10 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="1">
+        <v>980</v>
+      </c>
+      <c r="G4" s="1">
         <v>1421</v>
       </c>
       <c r="H4">
@@ -1319,7 +1332,10 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>1810</v>
+      </c>
+      <c r="G5" s="1">
         <v>2562</v>
       </c>
       <c r="H5">
@@ -1357,7 +1373,10 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="G6" s="1">
         <v>2083</v>
       </c>
       <c r="H6">

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAA91D4-1298-4257-8020-91A5A5344174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FCAF34-6DB3-4748-A748-44BD96B246CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
   <si>
     <t>NPID</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Dtem</t>
   </si>
   <si>
-    <t>Dh</t>
-  </si>
-  <si>
     <t>Shaken</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Amine</t>
   </si>
   <si>
-    <t>BET</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -150,13 +144,157 @@
   </si>
   <si>
     <t>NPUNID</t>
+  </si>
+  <si>
+    <t>200_PS Carb_10</t>
+  </si>
+  <si>
+    <t>200_PS Carb_100</t>
+  </si>
+  <si>
+    <t>small_Citrate_10</t>
+  </si>
+  <si>
+    <t>large_Citrate_10</t>
+  </si>
+  <si>
+    <t>small_PEI_10</t>
+  </si>
+  <si>
+    <t>large_PEI_10</t>
+  </si>
+  <si>
+    <t>large_PVP@AU_100</t>
+  </si>
+  <si>
+    <t>small_PVP@AU_10</t>
+  </si>
+  <si>
+    <t>small_PVP@AU_100</t>
+  </si>
+  <si>
+    <t>large_Citrate_100</t>
+  </si>
+  <si>
+    <t>large_PEI_100</t>
+  </si>
+  <si>
+    <t>small_Citrate_100</t>
+  </si>
+  <si>
+    <t>small_PEI_100</t>
+  </si>
+  <si>
+    <t>large_PVP@AU_10</t>
+  </si>
+  <si>
+    <t>large_PEG@Au_100</t>
+  </si>
+  <si>
+    <t>large_PEI@Au_100</t>
+  </si>
+  <si>
+    <t>small_PEI@Au_100</t>
+  </si>
+  <si>
+    <t>200_PS Carb@ PEG_100</t>
+  </si>
+  <si>
+    <t>FBS</t>
+  </si>
+  <si>
+    <t>Protein Source</t>
+  </si>
+  <si>
+    <t>BALF</t>
+  </si>
+  <si>
+    <t>Carboxylate</t>
+  </si>
+  <si>
+    <t>PEG 5k</t>
+  </si>
+  <si>
+    <t>Polyethelyenimine</t>
+  </si>
+  <si>
+    <t>Citrate</t>
+  </si>
+  <si>
+    <t>polyvinylpyrrolidone</t>
+  </si>
+  <si>
+    <t>Dh_core</t>
+  </si>
+  <si>
+    <t>Dh_functionalized</t>
+  </si>
+  <si>
+    <t>Raw_FileID</t>
+  </si>
+  <si>
+    <t>200_PS Carb@ PEG_100(b)</t>
+  </si>
+  <si>
+    <t>c200_LS_3C1</t>
+  </si>
+  <si>
+    <t>cMNP_200_30_100</t>
+  </si>
+  <si>
+    <t>cMNP_200_30_5</t>
+  </si>
+  <si>
+    <t>cMNP_200_24_100</t>
+  </si>
+  <si>
+    <t>cMNP_200_5_100</t>
+  </si>
+  <si>
+    <t>c200_LS_3C2</t>
+  </si>
+  <si>
+    <t>c200_LS_3C3</t>
+  </si>
+  <si>
+    <t>50HL</t>
+  </si>
+  <si>
+    <t>50LL</t>
+  </si>
+  <si>
+    <t>50HS</t>
+  </si>
+  <si>
+    <t>50LS</t>
+  </si>
+  <si>
+    <t>200HL</t>
+  </si>
+  <si>
+    <t>200LL</t>
+  </si>
+  <si>
+    <t>200HS</t>
+  </si>
+  <si>
+    <t>200LS</t>
+  </si>
+  <si>
+    <t>cMNP_200_10_24</t>
+  </si>
+  <si>
+    <t>cMNP_200_100_30</t>
+  </si>
+  <si>
+    <t>cMNP_200_5_30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +302,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +320,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,18 +335,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FF5A0A4D-9836-48ED-A0F3-E02DD3029105}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -209,6 +472,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:O35" totalsRowShown="0">
+  <autoFilter ref="A1:O35" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O29">
+    <sortCondition ref="A1:A29"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{173B7694-AC4F-448F-AE9B-AF8A1B6CF15E}" name="NPID"/>
+    <tableColumn id="2" xr3:uid="{B4AFAB4A-6882-41B3-8AA5-4A8C9B388892}" name="Zeta Potential"/>
+    <tableColumn id="3" xr3:uid="{0324E036-7D0E-48DC-8A43-D550C12B4897}" name="Core Material" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3F29D6E2-9845-4948-8891-04A03EAC89B5}" name="Ligand"/>
+    <tableColumn id="6" xr3:uid="{B07F2DCB-7162-4884-AF42-413E4C5C9A70}" name="Dtem"/>
+    <tableColumn id="7" xr3:uid="{6D72242B-4250-44D2-A643-C9E30E7E6259}" name="Dh_core"/>
+    <tableColumn id="8" xr3:uid="{64DEA1B6-3494-4A4C-9E99-737D17B9DADB}" name="Dh_functionalized"/>
+    <tableColumn id="9" xr3:uid="{546409C4-E99C-4804-9742-95397F967656}" name="Shaken"/>
+    <tableColumn id="10" xr3:uid="{3F74D121-1814-44F4-A42C-2BB996DE1C27}" name="Centrifuged"/>
+    <tableColumn id="11" xr3:uid="{1E5D7E63-DC81-492E-BE1D-5F4CFE24426F}" name="Protein Source"/>
+    <tableColumn id="12" xr3:uid="{E3E250E7-C44D-404F-ACBB-563A0C50246A}" name="NP_incubation Concentration (mg/mL)"/>
+    <tableColumn id="13" xr3:uid="{12C54116-DC07-4A62-B593-22B0D11006CC}" name="Incubation Concentration (mg/ml)"/>
+    <tableColumn id="14" xr3:uid="{0D9B1FA5-AEE0-443C-A486-9F058B268244}" name="Incubation Time (minutes)"/>
+    <tableColumn id="15" xr3:uid="{897FC025-BFAE-4349-B965-074E680D9617}" name="Temperature"/>
+    <tableColumn id="16" xr3:uid="{2E2BF4C1-EA9E-40CB-8C6A-16F39B07E599}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,7 +790,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,29 +798,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="3" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -538,10 +831,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D2" s="12">
+        <v>67501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,10 +845,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D3" s="13">
+        <v>67502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -560,10 +859,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12">
+        <v>67503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -571,10 +873,11 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -582,10 +885,11 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,10 +897,11 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -604,10 +909,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12">
+        <v>72281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -615,10 +923,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13">
+        <v>72282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -626,10 +937,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12">
+        <v>72283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -637,10 +951,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D11" s="13">
+        <v>72278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -648,10 +965,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12">
+        <v>72279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -659,10 +979,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D13" s="13">
+        <v>72280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -670,10 +993,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12">
+        <v>72275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -681,10 +1007,13 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13">
+        <v>72276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -692,10 +1021,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D16" s="12">
+        <v>72277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -703,240 +1035,537 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12">
+        <v>72287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="15">
+        <v>101054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="16">
+        <v>101055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="15">
+        <v>101056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="16">
+        <v>101057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="15">
+        <v>101058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="16">
+        <v>101059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>16</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="15">
+        <v>101060</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="16">
+        <v>101061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="15">
+        <v>101062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>19</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="16">
+        <v>101063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="15">
+        <v>101064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>21</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="16">
+        <v>101065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>22</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="15">
+        <v>101066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>23</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="16">
+        <v>101067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>24</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="15">
+        <v>101068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>25</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="16">
+        <v>101069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>26</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="15">
+        <v>101070</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>27</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="16">
+        <v>101071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>27</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="15">
+        <v>101072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="13">
+        <v>67504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="12">
+        <v>67505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="13">
+        <v>67506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>28</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="12">
+        <v>68393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>29</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="12">
+        <v>68395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>30</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="13">
+        <v>68396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <v>31</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="12">
+        <v>68397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="13">
+        <v>65143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="12">
+        <v>65141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="13">
+        <v>65142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="12">
+        <v>65140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>30</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="13">
+        <v>65139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="12">
+        <v>65137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>28</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="13">
+        <v>65138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="12">
+        <v>65136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1133,24 +1762,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,37 +1800,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1202,15 +1841,15 @@
         <v>-38</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
+      <c r="E2">
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
         <v>230</v>
       </c>
       <c r="H2">
@@ -1219,23 +1858,26 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2">
         <v>3.2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>30</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1243,40 +1885,44 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>188</v>
       </c>
       <c r="F3" s="1">
-        <v>188</v>
-      </c>
-      <c r="G3" s="1">
         <v>353.9</v>
       </c>
+      <c r="G3" s="1"/>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>4</v>
+      <c r="J3" t="s">
+        <v>54</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
         <v>30</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1285,40 +1931,44 @@
         <v>-24.333333333333332</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>980</v>
       </c>
       <c r="F4" s="1">
-        <v>980</v>
-      </c>
-      <c r="G4" s="1">
         <v>1421</v>
       </c>
+      <c r="G4" s="1"/>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>4</v>
+      <c r="J4" t="s">
+        <v>54</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
         <v>30</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1327,40 +1977,44 @@
         <v>-24.333333333333332</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1810</v>
       </c>
       <c r="F5" s="1">
-        <v>1810</v>
-      </c>
-      <c r="G5" s="1">
         <v>2562</v>
       </c>
+      <c r="G5" s="1"/>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>4</v>
+      <c r="J5" t="s">
+        <v>54</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
         <v>30</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>25</v>
       </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1368,40 +2022,44 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40.5</v>
       </c>
       <c r="F6" s="1">
-        <v>40.5</v>
-      </c>
-      <c r="G6" s="1">
         <v>2083</v>
       </c>
+      <c r="G6" s="1"/>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>4</v>
+      <c r="J6" t="s">
+        <v>54</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
         <v>30</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>25</v>
       </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1409,15 +2067,15 @@
         <v>-21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>378</v>
       </c>
       <c r="F7">
-        <v>378</v>
-      </c>
-      <c r="G7">
         <v>410</v>
       </c>
       <c r="H7">
@@ -1426,23 +2084,26 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
         <v>62.5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>60</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>25</v>
       </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1450,40 +2111,43 @@
         <v>-52</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <v>680</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>125</v>
+      </c>
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
         <v>27</v>
       </c>
-      <c r="F8">
-        <v>800</v>
-      </c>
-      <c r="G8">
-        <v>680</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>125</v>
-      </c>
-      <c r="K8">
-        <v>0.2</v>
-      </c>
-      <c r="L8">
-        <v>60</v>
-      </c>
-      <c r="M8">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1491,15 +2155,15 @@
         <v>-11</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>579</v>
       </c>
       <c r="F9">
-        <v>579</v>
-      </c>
-      <c r="G9">
         <v>441</v>
       </c>
       <c r="H9">
@@ -1508,23 +2172,26 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
         <v>200</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.2</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>60</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>25</v>
       </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1532,15 +2199,15 @@
         <v>-38</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
+      <c r="E10">
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
         <v>230</v>
       </c>
       <c r="H10">
@@ -1549,58 +2216,895 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
         <v>25</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.2</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>60</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>25</v>
       </c>
-      <c r="N10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>221</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>221</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4">
+        <v>151</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3">
+        <v>218</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2">
+        <v>151</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>218</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>-11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2">
+        <v>218</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3">
+        <v>151</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>30</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3">
+        <v>151</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19">
+        <v>40</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3">
+        <v>218</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="2">
+        <v>218</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>-42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="3">
+        <v>151</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3">
+        <v>151</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>-11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3">
+        <v>218</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>-3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2">
+        <v>218</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="3">
+        <v>218</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="3">
+        <v>151</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>-7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28">
+        <v>266</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>-38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>230</v>
+      </c>
+      <c r="G29">
+        <v>230</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29">
+        <v>3.2</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>25</v>
+      </c>
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>-38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>230</v>
+      </c>
+      <c r="G30">
+        <v>230</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30">
+        <v>3.2</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>-38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>230</v>
+      </c>
+      <c r="G31">
+        <v>230</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31">
+        <v>3.2</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>-38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>230</v>
+      </c>
+      <c r="G32">
+        <v>230</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32">
+        <v>3.2</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>-38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>230</v>
+      </c>
+      <c r="G33">
+        <v>230</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33">
+        <v>3.2</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FCAF34-6DB3-4748-A748-44BD96B246CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF101D2-BF2B-4FCF-B123-F2274E0BCB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="1575" yWindow="5445" windowWidth="23325" windowHeight="11055" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>NPID</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>cMNP_200_5_30</t>
+  </si>
+  <si>
+    <t>cMNP_200_100_24</t>
+  </si>
+  <si>
+    <t>cMNP_200_5_24</t>
+  </si>
+  <si>
+    <t>PEG 2k</t>
   </si>
 </sst>
 </file>
@@ -307,7 +316,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -401,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -435,6 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:O35" totalsRowShown="0">
-  <autoFilter ref="A1:O35" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:O37" totalsRowShown="0">
+  <autoFilter ref="A1:O37" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O29">
     <sortCondition ref="A1:A29"/>
   </sortState>
@@ -801,7 +817,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C5" sqref="C5:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +891,9 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14">
+        <v>71435</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -887,7 +905,9 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14">
+        <v>71438</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -899,7 +919,9 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>71441</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1762,24 +1784,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
     <col min="12" max="12" width="34.5703125" customWidth="1"/>
     <col min="13" max="13" width="28.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
@@ -1852,6 +1874,9 @@
       <c r="F2">
         <v>230</v>
       </c>
+      <c r="G2">
+        <v>230</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -1896,7 +1921,9 @@
       <c r="F3" s="1">
         <v>353.9</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>353.9</v>
+      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -1942,7 +1969,9 @@
       <c r="F4" s="1">
         <v>1421</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>1421</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -1988,7 +2017,9 @@
       <c r="F5" s="1">
         <v>2562</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>2562</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -2033,7 +2064,9 @@
       <c r="F6" s="1">
         <v>2083</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>2083</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -2078,6 +2111,9 @@
       <c r="F7">
         <v>410</v>
       </c>
+      <c r="G7">
+        <v>410</v>
+      </c>
       <c r="H7">
         <v>1</v>
       </c>
@@ -2122,6 +2158,9 @@
       <c r="F8">
         <v>680</v>
       </c>
+      <c r="G8">
+        <v>680</v>
+      </c>
       <c r="H8">
         <v>1</v>
       </c>
@@ -2166,6 +2205,9 @@
       <c r="F9">
         <v>441</v>
       </c>
+      <c r="G9">
+        <v>441</v>
+      </c>
       <c r="H9">
         <v>1</v>
       </c>
@@ -2210,6 +2252,9 @@
       <c r="F10">
         <v>230</v>
       </c>
+      <c r="G10">
+        <v>230</v>
+      </c>
       <c r="H10">
         <v>1</v>
       </c>
@@ -2248,9 +2293,13 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
+      <c r="E11" s="1"/>
       <c r="F11">
         <v>221</v>
       </c>
+      <c r="G11">
+        <v>221</v>
+      </c>
       <c r="H11">
         <v>1</v>
       </c>
@@ -2260,11 +2309,17 @@
       <c r="J11" t="s">
         <v>54</v>
       </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
       <c r="L11">
         <v>4</v>
       </c>
       <c r="M11">
         <v>30</v>
+      </c>
+      <c r="N11">
+        <v>25</v>
       </c>
       <c r="O11" t="s">
         <v>36</v>
@@ -2283,9 +2338,13 @@
       <c r="D12" t="s">
         <v>57</v>
       </c>
+      <c r="E12" s="1"/>
       <c r="F12">
         <v>221</v>
       </c>
+      <c r="G12">
+        <v>221</v>
+      </c>
       <c r="H12">
         <v>1</v>
       </c>
@@ -2295,11 +2354,17 @@
       <c r="J12" t="s">
         <v>54</v>
       </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
       <c r="L12">
         <v>40</v>
       </c>
       <c r="M12">
         <v>30</v>
+      </c>
+      <c r="N12">
+        <v>25</v>
       </c>
       <c r="O12" t="s">
         <v>37</v>
@@ -2318,10 +2383,13 @@
       <c r="D13" t="s">
         <v>60</v>
       </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="4">
         <v>151</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>151</v>
+      </c>
       <c r="H13">
         <v>1</v>
       </c>
@@ -2331,11 +2399,17 @@
       <c r="J13" t="s">
         <v>54</v>
       </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
       <c r="L13">
         <v>4</v>
       </c>
       <c r="M13">
         <v>30</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
       </c>
       <c r="O13" t="s">
         <v>38</v>
@@ -2354,9 +2428,13 @@
       <c r="D14" t="s">
         <v>60</v>
       </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="3">
         <v>218</v>
       </c>
+      <c r="G14" s="3">
+        <v>218</v>
+      </c>
       <c r="H14">
         <v>1</v>
       </c>
@@ -2366,11 +2444,17 @@
       <c r="J14" t="s">
         <v>54</v>
       </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14">
         <v>30</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
@@ -2389,10 +2473,13 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="2">
         <v>151</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="19">
+        <v>288</v>
+      </c>
       <c r="H15">
         <v>1</v>
       </c>
@@ -2402,11 +2489,17 @@
       <c r="J15" t="s">
         <v>54</v>
       </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
       <c r="L15">
         <v>4</v>
       </c>
       <c r="M15">
         <v>30</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
@@ -2425,9 +2518,13 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
+      <c r="E16" s="1"/>
       <c r="F16">
         <v>218</v>
       </c>
+      <c r="G16" s="1">
+        <v>351</v>
+      </c>
       <c r="H16">
         <v>1</v>
       </c>
@@ -2437,11 +2534,17 @@
       <c r="J16" t="s">
         <v>54</v>
       </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16">
         <v>30</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
@@ -2460,10 +2563,13 @@
       <c r="D17" t="s">
         <v>61</v>
       </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="2">
         <v>218</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="19">
+        <v>582</v>
+      </c>
       <c r="H17">
         <v>1</v>
       </c>
@@ -2473,11 +2579,17 @@
       <c r="J17" t="s">
         <v>54</v>
       </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
       <c r="L17">
         <v>40</v>
       </c>
       <c r="M17">
         <v>30</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
       </c>
       <c r="O17" t="s">
         <v>42</v>
@@ -2496,9 +2608,13 @@
       <c r="D18" t="s">
         <v>61</v>
       </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="3">
         <v>151</v>
       </c>
+      <c r="G18" s="1">
+        <v>271</v>
+      </c>
       <c r="H18">
         <v>1</v>
       </c>
@@ -2508,11 +2624,17 @@
       <c r="J18" t="s">
         <v>54</v>
       </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
       <c r="L18">
         <v>4</v>
       </c>
       <c r="M18">
         <v>30</v>
+      </c>
+      <c r="N18">
+        <v>25</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
@@ -2531,10 +2653,13 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="3">
         <v>151</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="1">
+        <v>271</v>
+      </c>
       <c r="H19">
         <v>1</v>
       </c>
@@ -2544,11 +2669,17 @@
       <c r="J19" t="s">
         <v>54</v>
       </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
       <c r="L19">
         <v>40</v>
       </c>
       <c r="M19">
         <v>30</v>
+      </c>
+      <c r="N19">
+        <v>25</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
@@ -2567,9 +2698,13 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="3">
         <v>218</v>
       </c>
+      <c r="G20" s="3">
+        <v>218</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
@@ -2579,11 +2714,17 @@
       <c r="J20" t="s">
         <v>54</v>
       </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
       <c r="L20">
         <v>40</v>
       </c>
       <c r="M20">
         <v>30</v>
+      </c>
+      <c r="N20">
+        <v>25</v>
       </c>
       <c r="O20" t="s">
         <v>45</v>
@@ -2602,10 +2743,13 @@
       <c r="D21" t="s">
         <v>59</v>
       </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="2">
         <v>218</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="19">
+        <v>351</v>
+      </c>
       <c r="H21">
         <v>1</v>
       </c>
@@ -2615,11 +2759,17 @@
       <c r="J21" t="s">
         <v>54</v>
       </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
       <c r="L21">
         <v>40</v>
       </c>
       <c r="M21">
         <v>30</v>
+      </c>
+      <c r="N21">
+        <v>25</v>
       </c>
       <c r="O21" t="s">
         <v>46</v>
@@ -2638,9 +2788,13 @@
       <c r="D22" t="s">
         <v>60</v>
       </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="3">
         <v>151</v>
       </c>
+      <c r="G22" s="3">
+        <v>151</v>
+      </c>
       <c r="H22">
         <v>1</v>
       </c>
@@ -2650,11 +2804,17 @@
       <c r="J22" t="s">
         <v>54</v>
       </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
       <c r="L22">
         <v>40</v>
       </c>
       <c r="M22">
         <v>30</v>
+      </c>
+      <c r="N22">
+        <v>25</v>
       </c>
       <c r="O22" t="s">
         <v>47</v>
@@ -2673,10 +2833,13 @@
       <c r="D23" t="s">
         <v>59</v>
       </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="3">
         <v>151</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="19">
+        <v>288</v>
+      </c>
       <c r="H23">
         <v>1</v>
       </c>
@@ -2686,11 +2849,17 @@
       <c r="J23" t="s">
         <v>54</v>
       </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
       <c r="L23">
         <v>40</v>
       </c>
       <c r="M23">
         <v>30</v>
+      </c>
+      <c r="N23">
+        <v>25</v>
       </c>
       <c r="O23" t="s">
         <v>48</v>
@@ -2709,9 +2878,13 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="3">
         <v>218</v>
       </c>
+      <c r="G24" s="1">
+        <v>582</v>
+      </c>
       <c r="H24">
         <v>1</v>
       </c>
@@ -2721,11 +2894,17 @@
       <c r="J24" t="s">
         <v>54</v>
       </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
       <c r="L24">
         <v>4</v>
       </c>
       <c r="M24">
         <v>30</v>
+      </c>
+      <c r="N24">
+        <v>25</v>
       </c>
       <c r="O24" t="s">
         <v>49</v>
@@ -2742,12 +2921,15 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="2">
         <v>218</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="19">
+        <v>609</v>
+      </c>
       <c r="H25">
         <v>1</v>
       </c>
@@ -2757,12 +2939,18 @@
       <c r="J25" t="s">
         <v>54</v>
       </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
       <c r="L25">
         <v>40</v>
       </c>
       <c r="M25">
         <v>30</v>
       </c>
+      <c r="N25">
+        <v>25</v>
+      </c>
       <c r="O25" t="s">
         <v>50</v>
       </c>
@@ -2780,9 +2968,13 @@
       <c r="D26" t="s">
         <v>59</v>
       </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="3">
         <v>218</v>
       </c>
+      <c r="G26" s="1">
+        <v>291</v>
+      </c>
       <c r="H26">
         <v>1</v>
       </c>
@@ -2792,11 +2984,17 @@
       <c r="J26" t="s">
         <v>54</v>
       </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
       <c r="L26">
         <v>40</v>
       </c>
       <c r="M26">
         <v>30</v>
+      </c>
+      <c r="N26">
+        <v>25</v>
       </c>
       <c r="O26" t="s">
         <v>51</v>
@@ -2815,10 +3013,13 @@
       <c r="D27" t="s">
         <v>59</v>
       </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="3">
         <v>151</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="19">
+        <v>230</v>
+      </c>
       <c r="H27">
         <v>1</v>
       </c>
@@ -2828,11 +3029,17 @@
       <c r="J27" t="s">
         <v>54</v>
       </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
       <c r="L27">
         <v>40</v>
       </c>
       <c r="M27">
         <v>30</v>
+      </c>
+      <c r="N27">
+        <v>25</v>
       </c>
       <c r="O27" t="s">
         <v>52</v>
@@ -2849,9 +3056,13 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28">
+        <v>221</v>
+      </c>
+      <c r="G28" s="1">
         <v>266</v>
       </c>
       <c r="H28">
@@ -2863,11 +3074,17 @@
       <c r="J28" t="s">
         <v>54</v>
       </c>
+      <c r="K28">
+        <v>2.4</v>
+      </c>
       <c r="L28">
         <v>40</v>
       </c>
       <c r="M28">
         <v>30</v>
+      </c>
+      <c r="N28">
+        <v>25</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
@@ -2957,6 +3174,12 @@
       <c r="L30">
         <v>2</v>
       </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>25</v>
+      </c>
       <c r="O30" t="s">
         <v>83</v>
       </c>
@@ -2998,8 +3221,14 @@
       <c r="L31">
         <v>40</v>
       </c>
+      <c r="M31">
+        <v>1440</v>
+      </c>
+      <c r="N31">
+        <v>25</v>
+      </c>
       <c r="O31" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3039,11 +3268,17 @@
       <c r="L32">
         <v>2</v>
       </c>
+      <c r="M32">
+        <v>1440</v>
+      </c>
+      <c r="N32">
+        <v>25</v>
+      </c>
       <c r="O32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3080,26 +3315,203 @@
       <c r="L33">
         <v>4</v>
       </c>
+      <c r="M33">
+        <v>1440</v>
+      </c>
+      <c r="N33">
+        <v>25</v>
+      </c>
       <c r="O33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>-38</v>
+      </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1">
+        <v>105</v>
+      </c>
+      <c r="G34" s="1">
+        <v>105</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34">
+        <v>3.2</v>
+      </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
+      <c r="M34">
+        <v>1440</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="B35">
+        <v>-38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1">
+        <v>105</v>
+      </c>
+      <c r="G35" s="1">
+        <v>105</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35">
+        <v>3.2</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>1440</v>
+      </c>
+      <c r="N35">
+        <v>25</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>-38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1">
+        <v>105</v>
+      </c>
+      <c r="G36" s="1">
+        <v>105</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36">
+        <v>3.2</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>25</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1">
+        <v>105</v>
+      </c>
+      <c r="G37" s="1">
+        <v>105</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37">
+        <v>3.2</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>25</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF101D2-BF2B-4FCF-B123-F2274E0BCB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD3C420-61DF-4F95-B1AE-1911ECEC2134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="5445" windowWidth="23325" windowHeight="11055" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="32445" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="95">
   <si>
     <t>NPID</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>PEG 2k</t>
+  </si>
+  <si>
+    <t>3_</t>
+  </si>
+  <si>
+    <t>4_</t>
+  </si>
+  <si>
+    <t>5_</t>
+  </si>
+  <si>
+    <t>6_</t>
+  </si>
+  <si>
+    <t>7_</t>
+  </si>
+  <si>
+    <t>8_</t>
+  </si>
+  <si>
+    <t>9_</t>
+  </si>
+  <si>
+    <t>Sample_num</t>
   </si>
 </sst>
 </file>
@@ -806,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -814,18 +838,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -833,761 +858,926 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>67501</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13">
+      <c r="E3" s="13">
         <v>67502</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="12">
         <v>67503</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14">
+      <c r="E5" s="14">
         <v>71435</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="14">
+      <c r="E6" s="14">
         <v>71438</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14">
+      <c r="E7" s="14">
         <v>71441</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="12">
+      <c r="E8" s="12">
         <v>72281</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="13">
+      <c r="E9" s="13">
         <v>72282</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12">
+      <c r="E10" s="12">
         <v>72283</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="13">
+      <c r="E11" s="13">
         <v>72278</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="12">
+      <c r="E12" s="12">
         <v>72279</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="13">
         <v>72280</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12">
+      <c r="E14" s="12">
         <v>72275</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E15" s="13">
         <v>72276</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="12">
+      <c r="E16" s="12">
         <v>72277</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="12">
         <v>72287</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="3">
+        <v>31</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="15">
+      <c r="E18" s="15">
         <v>101054</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>11</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="2">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="16">
+      <c r="E19" s="16">
         <v>101055</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="7">
         <v>12</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="3">
+        <v>33</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="15">
+      <c r="E20" s="15">
         <v>101056</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>13</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="2">
+        <v>34</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="16">
+      <c r="E21" s="16">
         <v>101057</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="7">
         <v>14</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="3">
+        <v>35</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="15">
+      <c r="E22" s="15">
         <v>101058</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>15</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="2">
+        <v>36</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="16">
+      <c r="E23" s="16">
         <v>101059</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="7">
         <v>16</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="3">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="15">
+      <c r="E24" s="15">
         <v>101060</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>17</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="2">
+        <v>38</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="16">
+      <c r="E25" s="16">
         <v>101061</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="7">
         <v>18</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="3">
+        <v>39</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="15">
+      <c r="E26" s="15">
         <v>101062</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>19</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="2">
+        <v>40</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="16">
+      <c r="E27" s="16">
         <v>101063</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="7">
         <v>20</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="3">
+        <v>41</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="15">
+      <c r="E28" s="15">
         <v>101064</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>21</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="2">
+        <v>42</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="16">
+      <c r="E29" s="16">
         <v>101065</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="7">
         <v>22</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="3">
+        <v>43</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="15">
+      <c r="E30" s="15">
         <v>101066</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>23</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="2">
+        <v>44</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="16">
+      <c r="E31" s="16">
         <v>101067</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="7">
         <v>24</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="3">
+        <v>45</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="15">
+      <c r="E32" s="15">
         <v>101068</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>25</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="2">
+        <v>46</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="16">
+      <c r="E33" s="16">
         <v>101069</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="7">
         <v>26</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="3">
+        <v>47</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="15">
+      <c r="E34" s="15">
         <v>101070</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>27</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="2">
+        <v>48</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="16">
+      <c r="E35" s="16">
         <v>101071</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="9">
         <v>27</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36">
+        <v>49</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="15">
+      <c r="E36" s="15">
         <v>101072</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="13">
+      <c r="E37" s="13">
         <v>67504</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38">
+        <v>80</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="12">
+      <c r="E38" s="12">
         <v>67505</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="13">
+      <c r="E39" s="13">
         <v>67506</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="7">
         <v>28</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="3">
+        <v>68</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="12">
+      <c r="E40" s="12">
         <v>68393</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>29</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="2">
+        <v>70</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="12">
+      <c r="E41" s="12">
         <v>68395</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="7">
         <v>30</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="3">
+        <v>71</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="13">
+      <c r="E42" s="13">
         <v>68396</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>31</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="2">
+        <v>72</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="12">
+      <c r="E43" s="12">
         <v>68397</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="5">
+        <v>33</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="13">
+      <c r="E44" s="13">
         <v>65143</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="B45" s="7">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="12">
+      <c r="E45" s="12">
         <v>65141</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="5">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="13">
+      <c r="E46" s="13">
         <v>65142</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="B47" s="7">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="12">
+      <c r="E47" s="12">
         <v>65140</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="7">
         <v>30</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="13">
+      <c r="E48" s="13">
         <v>65139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>32</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="12">
+      <c r="E49" s="12">
         <v>65137</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="7">
         <v>28</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="13">
+      <c r="E50" s="13">
         <v>65138</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="12">
+      <c r="E51" s="12">
         <v>65136</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1786,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD3C420-61DF-4F95-B1AE-1911ECEC2134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8115E15-BD6E-458B-945C-988DFACD4001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
   <si>
     <t>NPID</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Core Material</t>
   </si>
   <si>
-    <t>Ligand</t>
-  </si>
-  <si>
     <t>Dtem</t>
   </si>
   <si>
@@ -212,18 +209,9 @@
     <t>Carboxylate</t>
   </si>
   <si>
-    <t>PEG 5k</t>
-  </si>
-  <si>
-    <t>Polyethelyenimine</t>
-  </si>
-  <si>
     <t>Citrate</t>
   </si>
   <si>
-    <t>polyvinylpyrrolidone</t>
-  </si>
-  <si>
     <t>Dh_core</t>
   </si>
   <si>
@@ -296,9 +284,6 @@
     <t>cMNP_200_5_24</t>
   </si>
   <si>
-    <t>PEG 2k</t>
-  </si>
-  <si>
     <t>3_</t>
   </si>
   <si>
@@ -321,6 +306,27 @@
   </si>
   <si>
     <t>Sample_num</t>
+  </si>
+  <si>
+    <t>Ligands</t>
+  </si>
+  <si>
+    <t>Carboxylate_PEG2k</t>
+  </si>
+  <si>
+    <t>Citrate_Polyethelyenimine_Au_Polyethelyenimine</t>
+  </si>
+  <si>
+    <t>Citrate_Polyethelyenimine_Au_PEG5k</t>
+  </si>
+  <si>
+    <t>Citrate_Polyethelyenimine_Au_Polyvinylpyrrolidone</t>
+  </si>
+  <si>
+    <t>Citrate_Polyethelyenimine</t>
+  </si>
+  <si>
+    <t>Citrate_Polyethelyenimine_Au_polyvinylpyrrolidone</t>
   </si>
 </sst>
 </file>
@@ -524,7 +530,7 @@
     <tableColumn id="1" xr3:uid="{173B7694-AC4F-448F-AE9B-AF8A1B6CF15E}" name="NPID"/>
     <tableColumn id="2" xr3:uid="{B4AFAB4A-6882-41B3-8AA5-4A8C9B388892}" name="Zeta Potential"/>
     <tableColumn id="3" xr3:uid="{0324E036-7D0E-48DC-8A43-D550C12B4897}" name="Core Material" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{3F29D6E2-9845-4948-8891-04A03EAC89B5}" name="Ligand"/>
+    <tableColumn id="4" xr3:uid="{3F29D6E2-9845-4948-8891-04A03EAC89B5}" name="Ligands"/>
     <tableColumn id="6" xr3:uid="{B07F2DCB-7162-4884-AF42-413E4C5C9A70}" name="Dtem"/>
     <tableColumn id="7" xr3:uid="{6D72242B-4250-44D2-A643-C9E30E7E6259}" name="Dh_core"/>
     <tableColumn id="8" xr3:uid="{64DEA1B6-3494-4A4C-9E99-737D17B9DADB}" name="Dh_functionalized"/>
@@ -838,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,19 +858,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,7 +884,7 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="12">
         <v>67501</v>
@@ -895,7 +901,7 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="13">
         <v>67502</v>
@@ -912,7 +918,7 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="12">
         <v>67503</v>
@@ -929,7 +935,7 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="14">
         <v>71435</v>
@@ -946,7 +952,7 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="14">
         <v>71438</v>
@@ -963,7 +969,7 @@
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="14">
         <v>71441</v>
@@ -980,7 +986,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="12">
         <v>72281</v>
@@ -997,7 +1003,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="13">
         <v>72282</v>
@@ -1014,7 +1020,7 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="12">
         <v>72283</v>
@@ -1031,7 +1037,7 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="13">
         <v>72278</v>
@@ -1048,7 +1054,7 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="12">
         <v>72279</v>
@@ -1065,7 +1071,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="13">
         <v>72280</v>
@@ -1082,7 +1088,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12">
         <v>72275</v>
@@ -1099,7 +1105,7 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="13">
         <v>72276</v>
@@ -1116,7 +1122,7 @@
         <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="12">
         <v>72277</v>
@@ -1133,7 +1139,7 @@
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="12">
         <v>72287</v>
@@ -1150,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="15">
         <v>101054</v>
@@ -1167,7 +1173,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="16">
         <v>101055</v>
@@ -1184,7 +1190,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="15">
         <v>101056</v>
@@ -1201,7 +1207,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="16">
         <v>101057</v>
@@ -1218,7 +1224,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="15">
         <v>101058</v>
@@ -1235,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="16">
         <v>101059</v>
@@ -1252,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="15">
         <v>101060</v>
@@ -1269,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="16">
         <v>101061</v>
@@ -1286,7 +1292,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="15">
         <v>101062</v>
@@ -1303,7 +1309,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="16">
         <v>101063</v>
@@ -1320,7 +1326,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="15">
         <v>101064</v>
@@ -1337,7 +1343,7 @@
         <v>42</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="16">
         <v>101065</v>
@@ -1354,7 +1360,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="15">
         <v>101066</v>
@@ -1371,7 +1377,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="16">
         <v>101067</v>
@@ -1388,7 +1394,7 @@
         <v>45</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="15">
         <v>101068</v>
@@ -1405,7 +1411,7 @@
         <v>46</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="16">
         <v>101069</v>
@@ -1422,7 +1428,7 @@
         <v>47</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="15">
         <v>101070</v>
@@ -1439,7 +1445,7 @@
         <v>48</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="16">
         <v>101071</v>
@@ -1456,7 +1462,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E36" s="15">
         <v>101072</v>
@@ -1473,7 +1479,7 @@
         <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E37" s="13">
         <v>67504</v>
@@ -1490,7 +1496,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E38" s="12">
         <v>67505</v>
@@ -1507,7 +1513,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E39" s="13">
         <v>67506</v>
@@ -1524,7 +1530,7 @@
         <v>68</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E40" s="12">
         <v>68393</v>
@@ -1541,7 +1547,7 @@
         <v>70</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" s="12">
         <v>68395</v>
@@ -1558,7 +1564,7 @@
         <v>71</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E42" s="13">
         <v>68396</v>
@@ -1575,7 +1581,7 @@
         <v>72</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E43" s="12">
         <v>68397</v>
@@ -1589,10 +1595,10 @@
         <v>33</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E44" s="13">
         <v>65143</v>
@@ -1606,10 +1612,10 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E45" s="12">
         <v>65141</v>
@@ -1623,10 +1629,10 @@
         <v>35</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E46" s="13">
         <v>65142</v>
@@ -1640,10 +1646,10 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E47" s="12">
         <v>65140</v>
@@ -1657,10 +1663,10 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E48" s="13">
         <v>65139</v>
@@ -1674,10 +1680,10 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E49" s="12">
         <v>65137</v>
@@ -1691,10 +1697,10 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E50" s="13">
         <v>65138</v>
@@ -1711,260 +1717,10 @@
         <v>10</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E51" s="12">
         <v>65136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1976,15 +1732,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="92" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
@@ -2009,40 +1765,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2053,10 +1809,10 @@
         <v>-38</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2074,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2">
         <v>3.2</v>
@@ -2089,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2100,10 +1856,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>188</v>
@@ -2121,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -2136,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2148,10 +1904,10 @@
         <v>-24.333333333333332</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>980</v>
@@ -2169,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -2184,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2196,10 +1952,10 @@
         <v>-24.333333333333332</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>1810</v>
@@ -2217,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -2232,7 +1988,7 @@
         <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2243,10 +1999,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>40.5</v>
@@ -2264,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -2279,7 +2035,7 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2290,10 +2046,10 @@
         <v>-21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>378</v>
@@ -2311,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>62.5</v>
@@ -2326,7 +2082,7 @@
         <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2337,10 +2093,10 @@
         <v>-52</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>800</v>
@@ -2358,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>125</v>
@@ -2373,7 +2129,7 @@
         <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2384,10 +2140,10 @@
         <v>-11</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>579</v>
@@ -2405,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>200</v>
@@ -2420,7 +2176,7 @@
         <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2431,10 +2187,10 @@
         <v>-38</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2452,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>25</v>
@@ -2467,7 +2223,7 @@
         <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2478,12 +2234,14 @@
         <v>-63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
       <c r="F11">
         <v>221</v>
       </c>
@@ -2497,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -2512,7 +2270,7 @@
         <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2523,12 +2281,14 @@
         <v>-63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
       <c r="F12">
         <v>221</v>
       </c>
@@ -2542,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -2557,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2568,12 +2328,14 @@
         <v>-42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="1">
+        <v>71.5</v>
+      </c>
       <c r="F13" s="4">
         <v>151</v>
       </c>
@@ -2587,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2602,7 +2364,7 @@
         <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2613,12 +2375,14 @@
         <v>-49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
       <c r="F14" s="3">
         <v>218</v>
       </c>
@@ -2632,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2647,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2658,12 +2422,14 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E15" s="1">
+        <v>71.5</v>
+      </c>
       <c r="F15" s="2">
         <v>151</v>
       </c>
@@ -2677,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2692,7 +2458,7 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2703,12 +2469,14 @@
         <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
       <c r="F16">
         <v>218</v>
       </c>
@@ -2722,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2737,7 +2505,7 @@
         <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2748,12 +2516,14 @@
         <v>-11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
       <c r="F17" s="2">
         <v>218</v>
       </c>
@@ -2767,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2782,7 +2552,7 @@
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2793,12 +2563,14 @@
         <v>-12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="E18" s="1">
+        <v>71.5</v>
+      </c>
       <c r="F18" s="3">
         <v>151</v>
       </c>
@@ -2812,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2827,7 +2599,7 @@
         <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2838,12 +2610,14 @@
         <v>-12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="E19" s="1">
+        <v>71.5</v>
+      </c>
       <c r="F19" s="3">
         <v>151</v>
       </c>
@@ -2857,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2872,7 +2646,7 @@
         <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2883,12 +2657,14 @@
         <v>-49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="E20" s="1">
+        <v>200</v>
+      </c>
       <c r="F20" s="3">
         <v>218</v>
       </c>
@@ -2902,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2917,7 +2693,7 @@
         <v>25</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2928,12 +2704,14 @@
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
       <c r="F21" s="2">
         <v>218</v>
       </c>
@@ -2947,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2962,7 +2740,7 @@
         <v>25</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2973,12 +2751,14 @@
         <v>-42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="E22" s="1">
+        <v>71.5</v>
+      </c>
       <c r="F22" s="3">
         <v>151</v>
       </c>
@@ -2992,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -3007,7 +2787,7 @@
         <v>25</v>
       </c>
       <c r="O22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -3018,12 +2798,14 @@
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E23" s="1">
+        <v>71.5</v>
+      </c>
       <c r="F23" s="3">
         <v>151</v>
       </c>
@@ -3037,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -3052,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="O23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3063,12 +2845,14 @@
         <v>-11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E24" s="1">
+        <v>200</v>
+      </c>
       <c r="F24" s="3">
         <v>218</v>
       </c>
@@ -3082,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -3097,7 +2881,7 @@
         <v>25</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3108,12 +2892,14 @@
         <v>-3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200</v>
+      </c>
       <c r="F25" s="2">
         <v>218</v>
       </c>
@@ -3127,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -3142,7 +2928,7 @@
         <v>25</v>
       </c>
       <c r="O25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3153,12 +2939,14 @@
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
       <c r="F26" s="3">
         <v>218</v>
       </c>
@@ -3172,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3187,7 +2975,7 @@
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3198,12 +2986,14 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="E27" s="1">
+        <v>71.5</v>
+      </c>
       <c r="F27" s="3">
         <v>151</v>
       </c>
@@ -3217,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3232,7 +3022,7 @@
         <v>25</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3243,12 +3033,14 @@
         <v>-7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
       <c r="F28">
         <v>221</v>
       </c>
@@ -3262,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3277,7 +3069,7 @@
         <v>25</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3288,10 +3080,10 @@
         <v>-38</v>
       </c>
       <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
         <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -3309,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29">
         <v>3.2</v>
@@ -3324,7 +3116,7 @@
         <v>25</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3335,10 +3127,10 @@
         <v>-38</v>
       </c>
       <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
         <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3356,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30">
         <v>3.2</v>
@@ -3371,7 +3163,7 @@
         <v>25</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3382,10 +3174,10 @@
         <v>-38</v>
       </c>
       <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
         <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -3403,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>3.2</v>
@@ -3418,7 +3210,7 @@
         <v>25</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3429,10 +3221,10 @@
         <v>-38</v>
       </c>
       <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
         <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3450,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
         <v>3.2</v>
@@ -3465,7 +3257,7 @@
         <v>25</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3476,10 +3268,10 @@
         <v>-38</v>
       </c>
       <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
         <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -3497,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>3.2</v>
@@ -3512,7 +3304,7 @@
         <v>25</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3523,10 +3315,10 @@
         <v>-38</v>
       </c>
       <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
         <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
       </c>
       <c r="E34" s="1">
         <v>50</v>
@@ -3544,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>3.2</v>
@@ -3559,7 +3351,7 @@
         <v>25</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3570,10 +3362,10 @@
         <v>-38</v>
       </c>
       <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
         <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
       </c>
       <c r="E35" s="1">
         <v>50</v>
@@ -3591,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
         <v>3.2</v>
@@ -3606,7 +3398,7 @@
         <v>25</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3617,10 +3409,10 @@
         <v>-38</v>
       </c>
       <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
         <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
       </c>
       <c r="E36" s="1">
         <v>50</v>
@@ -3638,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36">
         <v>3.2</v>
@@ -3653,7 +3445,7 @@
         <v>25</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3664,10 +3456,10 @@
         <v>-38</v>
       </c>
       <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
         <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
       </c>
       <c r="E37" s="1">
         <v>50</v>
@@ -3685,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -3700,7 +3492,7 @@
         <v>25</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8115E15-BD6E-458B-945C-988DFACD4001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A4602E-EB63-4807-8EF7-A99239E03E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="109">
   <si>
     <t>NPID</t>
   </si>
@@ -314,26 +314,62 @@
     <t>Carboxylate_PEG2k</t>
   </si>
   <si>
-    <t>Citrate_Polyethelyenimine_Au_Polyethelyenimine</t>
-  </si>
-  <si>
-    <t>Citrate_Polyethelyenimine_Au_PEG5k</t>
-  </si>
-  <si>
-    <t>Citrate_Polyethelyenimine_Au_Polyvinylpyrrolidone</t>
-  </si>
-  <si>
-    <t>Citrate_Polyethelyenimine</t>
-  </si>
-  <si>
-    <t>Citrate_Polyethelyenimine_Au_polyvinylpyrrolidone</t>
+    <t>Surface_Ligand</t>
+  </si>
+  <si>
+    <t>PEI</t>
+  </si>
+  <si>
+    <t>PVP</t>
+  </si>
+  <si>
+    <t>PEG5k</t>
+  </si>
+  <si>
+    <t>PEG2k</t>
+  </si>
+  <si>
+    <t>Ligand_Carboxylate</t>
+  </si>
+  <si>
+    <t>Ligand_BSA</t>
+  </si>
+  <si>
+    <t>Ligand_Amine</t>
+  </si>
+  <si>
+    <t>Ligand_Citrate</t>
+  </si>
+  <si>
+    <t>Ligand_PEG</t>
+  </si>
+  <si>
+    <t>Ligand_PEI</t>
+  </si>
+  <si>
+    <t>Ligand_PVP</t>
+  </si>
+  <si>
+    <t>Ligand_Au</t>
+  </si>
+  <si>
+    <t>Citrate_PEI</t>
+  </si>
+  <si>
+    <t>Citrate_PEI_Au_PVP</t>
+  </si>
+  <si>
+    <t>Citrate_PEI_Au_PEG5k</t>
+  </si>
+  <si>
+    <t>Citrate_PEI_Au_PEI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +380,12 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -486,7 +528,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FF5A0A4D-9836-48ED-A0F3-E02DD3029105}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -521,16 +587,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:O37" totalsRowShown="0">
-  <autoFilter ref="A1:O37" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:X37" totalsRowShown="0">
+  <autoFilter ref="A1:X37" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X29">
     <sortCondition ref="A1:A29"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{173B7694-AC4F-448F-AE9B-AF8A1B6CF15E}" name="NPID"/>
     <tableColumn id="2" xr3:uid="{B4AFAB4A-6882-41B3-8AA5-4A8C9B388892}" name="Zeta Potential"/>
-    <tableColumn id="3" xr3:uid="{0324E036-7D0E-48DC-8A43-D550C12B4897}" name="Core Material" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0324E036-7D0E-48DC-8A43-D550C12B4897}" name="Core Material" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{3F29D6E2-9845-4948-8891-04A03EAC89B5}" name="Ligands"/>
+    <tableColumn id="17" xr3:uid="{A0534AD9-1A91-47E4-A89B-FB11C3D951A3}" name="Ligand_Carboxylate" dataDxfId="7">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{E949EFF6-761D-43CE-87F9-CC8CCB69266E}" name="Ligand_BSA" dataDxfId="6">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{A0803517-4405-4771-B131-80D7B75E1518}" name="Ligand_Amine" dataDxfId="5">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{0D9B7459-6633-467C-9BBC-509640B8A89D}" name="Ligand_Citrate" dataDxfId="4">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{7AB68356-CA56-40FF-94C2-FB0EAA427C68}" name="Ligand_PEG" dataDxfId="3">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{BE258B69-EFF1-403A-A75A-874C70F00F1A}" name="Ligand_PEI" dataDxfId="2">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{0F9F3DB6-799B-4B66-A7CB-9355AEC3E1A2}" name="Ligand_PVP" dataDxfId="1">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{80B4F852-5DA8-476B-B843-DB85C2C71284}" name="Ligand_Au" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DA9025AD-096C-4925-8F35-2567A1945ABB}" name="Surface_Ligand"/>
     <tableColumn id="6" xr3:uid="{B07F2DCB-7162-4884-AF42-413E4C5C9A70}" name="Dtem"/>
     <tableColumn id="7" xr3:uid="{6D72242B-4250-44D2-A643-C9E30E7E6259}" name="Dh_core"/>
     <tableColumn id="8" xr3:uid="{64DEA1B6-3494-4A4C-9E99-737D17B9DADB}" name="Dh_functionalized"/>
@@ -1730,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,20 +1832,21 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="92" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" customWidth="1"/>
+    <col min="5" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="40.85546875" customWidth="1"/>
+    <col min="20" max="20" width="34.5703125" customWidth="1"/>
+    <col min="21" max="21" width="28.5703125" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1768,40 +1860,67 @@
         <v>90</v>
       </c>
       <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1815,40 +1934,75 @@
         <v>10</v>
       </c>
       <c r="E2">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="O2">
         <v>230</v>
       </c>
-      <c r="G2">
+      <c r="P2">
         <v>230</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>53</v>
       </c>
-      <c r="K2">
+      <c r="T2">
         <v>3.2</v>
       </c>
-      <c r="L2">
+      <c r="U2">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="V2">
         <v>30</v>
       </c>
-      <c r="N2">
+      <c r="W2">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="X2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1861,41 +2015,76 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1">
         <v>188</v>
       </c>
-      <c r="F3" s="1">
+      <c r="O3" s="1">
         <v>353.9</v>
       </c>
-      <c r="G3" s="1">
+      <c r="P3" s="1">
         <v>353.9</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>53</v>
       </c>
-      <c r="K3">
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="U3">
         <v>4</v>
       </c>
-      <c r="M3">
+      <c r="V3">
         <v>30</v>
       </c>
-      <c r="N3">
+      <c r="W3">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+      <c r="X3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1909,41 +2098,76 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1">
         <v>980</v>
       </c>
-      <c r="F4" s="1">
+      <c r="O4" s="1">
         <v>1421</v>
       </c>
-      <c r="G4" s="1">
+      <c r="P4" s="1">
         <v>1421</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
         <v>53</v>
       </c>
-      <c r="K4">
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="L4">
+      <c r="U4">
         <v>4</v>
       </c>
-      <c r="M4">
+      <c r="V4">
         <v>30</v>
       </c>
-      <c r="N4">
+      <c r="W4">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="X4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1957,41 +2181,76 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1">
         <v>1810</v>
       </c>
-      <c r="F5" s="1">
+      <c r="O5" s="1">
         <v>2562</v>
       </c>
-      <c r="G5" s="1">
+      <c r="P5" s="1">
         <v>2562</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
         <v>53</v>
       </c>
-      <c r="K5">
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="U5">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="V5">
         <v>30</v>
       </c>
-      <c r="N5">
+      <c r="W5">
         <v>25</v>
       </c>
-      <c r="O5" t="s">
+      <c r="X5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2004,41 +2263,76 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1">
         <v>40.5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="O6" s="1">
         <v>2083</v>
       </c>
-      <c r="G6" s="1">
+      <c r="P6" s="1">
         <v>2083</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
         <v>53</v>
       </c>
-      <c r="K6">
+      <c r="T6">
         <v>4</v>
       </c>
-      <c r="L6">
+      <c r="U6">
         <v>4</v>
       </c>
-      <c r="M6">
+      <c r="V6">
         <v>30</v>
       </c>
-      <c r="N6">
+      <c r="W6">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="X6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2052,40 +2346,75 @@
         <v>24</v>
       </c>
       <c r="E7">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7">
         <v>378</v>
       </c>
-      <c r="F7">
+      <c r="O7">
         <v>410</v>
       </c>
-      <c r="G7">
+      <c r="P7">
         <v>410</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
         <v>55</v>
       </c>
-      <c r="K7">
+      <c r="T7">
         <v>62.5</v>
       </c>
-      <c r="L7">
+      <c r="U7">
         <v>0.2</v>
       </c>
-      <c r="M7">
+      <c r="V7">
         <v>60</v>
       </c>
-      <c r="N7">
+      <c r="W7">
         <v>25</v>
       </c>
-      <c r="O7" t="s">
+      <c r="X7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2099,40 +2428,75 @@
         <v>24</v>
       </c>
       <c r="E8">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8">
         <v>800</v>
       </c>
-      <c r="F8">
+      <c r="O8">
         <v>680</v>
       </c>
-      <c r="G8">
+      <c r="P8">
         <v>680</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
         <v>55</v>
       </c>
-      <c r="K8">
+      <c r="T8">
         <v>125</v>
       </c>
-      <c r="L8">
+      <c r="U8">
         <v>0.2</v>
       </c>
-      <c r="M8">
+      <c r="V8">
         <v>60</v>
       </c>
-      <c r="N8">
+      <c r="W8">
         <v>25</v>
       </c>
-      <c r="O8" t="s">
+      <c r="X8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2146,40 +2510,75 @@
         <v>24</v>
       </c>
       <c r="E9">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9">
         <v>579</v>
       </c>
-      <c r="F9">
+      <c r="O9">
         <v>441</v>
       </c>
-      <c r="G9">
+      <c r="P9">
         <v>441</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
         <v>55</v>
       </c>
-      <c r="K9">
+      <c r="T9">
         <v>200</v>
       </c>
-      <c r="L9">
+      <c r="U9">
         <v>0.2</v>
       </c>
-      <c r="M9">
+      <c r="V9">
         <v>60</v>
       </c>
-      <c r="N9">
+      <c r="W9">
         <v>25</v>
       </c>
-      <c r="O9" t="s">
+      <c r="X9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2193,40 +2592,75 @@
         <v>10</v>
       </c>
       <c r="E10">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10">
         <v>100</v>
       </c>
-      <c r="F10">
+      <c r="O10">
         <v>230</v>
       </c>
-      <c r="G10">
+      <c r="P10">
         <v>230</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
         <v>55</v>
       </c>
-      <c r="K10">
+      <c r="T10">
         <v>25</v>
       </c>
-      <c r="L10">
+      <c r="U10">
         <v>0.2</v>
       </c>
-      <c r="M10">
+      <c r="V10">
         <v>60</v>
       </c>
-      <c r="N10">
+      <c r="W10">
         <v>25</v>
       </c>
-      <c r="O10" t="s">
+      <c r="X10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2239,41 +2673,76 @@
       <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="1">
         <v>200</v>
       </c>
-      <c r="F11">
+      <c r="O11">
         <v>221</v>
       </c>
-      <c r="G11">
+      <c r="P11">
         <v>221</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
         <v>53</v>
       </c>
-      <c r="K11">
+      <c r="T11">
         <v>4</v>
       </c>
-      <c r="L11">
+      <c r="U11">
         <v>4</v>
       </c>
-      <c r="M11">
+      <c r="V11">
         <v>30</v>
       </c>
-      <c r="N11">
+      <c r="W11">
         <v>25</v>
       </c>
-      <c r="O11" t="s">
+      <c r="X11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2286,41 +2755,76 @@
       <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="1">
         <v>200</v>
       </c>
-      <c r="F12">
+      <c r="O12">
         <v>221</v>
       </c>
-      <c r="G12">
+      <c r="P12">
         <v>221</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
         <v>53</v>
       </c>
-      <c r="K12">
+      <c r="T12">
         <v>4</v>
       </c>
-      <c r="L12">
+      <c r="U12">
         <v>40</v>
       </c>
-      <c r="M12">
+      <c r="V12">
         <v>30</v>
       </c>
-      <c r="N12">
+      <c r="W12">
         <v>25</v>
       </c>
-      <c r="O12" t="s">
+      <c r="X12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2333,41 +2837,76 @@
       <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="1">
         <v>71.5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="O13" s="4">
         <v>151</v>
       </c>
-      <c r="G13" s="4">
+      <c r="P13" s="4">
         <v>151</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
         <v>53</v>
       </c>
-      <c r="K13">
+      <c r="T13">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="U13">
         <v>4</v>
       </c>
-      <c r="M13">
+      <c r="V13">
         <v>30</v>
       </c>
-      <c r="N13">
+      <c r="W13">
         <v>25</v>
       </c>
-      <c r="O13" t="s">
+      <c r="X13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2380,41 +2919,76 @@
       <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="1">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="O14" s="3">
         <v>218</v>
       </c>
-      <c r="G14" s="3">
+      <c r="P14" s="3">
         <v>218</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
         <v>53</v>
       </c>
-      <c r="K14">
+      <c r="T14">
         <v>5</v>
       </c>
-      <c r="L14">
+      <c r="U14">
         <v>4</v>
       </c>
-      <c r="M14">
+      <c r="V14">
         <v>30</v>
       </c>
-      <c r="N14">
+      <c r="W14">
         <v>25</v>
       </c>
-      <c r="O14" t="s">
+      <c r="X14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2425,43 +2999,78 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="1">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="1">
         <v>71.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="O15" s="2">
         <v>151</v>
       </c>
-      <c r="G15" s="19">
+      <c r="P15" s="19">
         <v>288</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
         <v>53</v>
       </c>
-      <c r="K15">
+      <c r="T15">
         <v>5</v>
       </c>
-      <c r="L15">
+      <c r="U15">
         <v>4</v>
       </c>
-      <c r="M15">
+      <c r="V15">
         <v>30</v>
       </c>
-      <c r="N15">
+      <c r="W15">
         <v>25</v>
       </c>
-      <c r="O15" t="s">
+      <c r="X15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2472,43 +3081,78 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="1">
+        <v>105</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="1">
         <v>200</v>
       </c>
-      <c r="F16">
+      <c r="O16">
         <v>218</v>
       </c>
-      <c r="G16" s="1">
+      <c r="P16" s="1">
         <v>351</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
         <v>53</v>
       </c>
-      <c r="K16">
+      <c r="T16">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="U16">
         <v>4</v>
       </c>
-      <c r="M16">
+      <c r="V16">
         <v>30</v>
       </c>
-      <c r="N16">
+      <c r="W16">
         <v>25</v>
       </c>
-      <c r="O16" t="s">
+      <c r="X16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2519,43 +3163,78 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="1">
+        <v>106</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="1">
         <v>200</v>
       </c>
-      <c r="F17" s="2">
+      <c r="O17" s="2">
         <v>218</v>
       </c>
-      <c r="G17" s="19">
+      <c r="P17" s="19">
         <v>582</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
         <v>53</v>
       </c>
-      <c r="K17">
+      <c r="T17">
         <v>5</v>
       </c>
-      <c r="L17">
+      <c r="U17">
         <v>40</v>
       </c>
-      <c r="M17">
+      <c r="V17">
         <v>30</v>
       </c>
-      <c r="N17">
+      <c r="W17">
         <v>25</v>
       </c>
-      <c r="O17" t="s">
+      <c r="X17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2566,43 +3245,78 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="1">
+        <v>106</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="1">
         <v>71.5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="O18" s="3">
         <v>151</v>
       </c>
-      <c r="G18" s="1">
+      <c r="P18" s="1">
         <v>271</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
         <v>53</v>
       </c>
-      <c r="K18">
+      <c r="T18">
         <v>5</v>
       </c>
-      <c r="L18">
+      <c r="U18">
         <v>4</v>
       </c>
-      <c r="M18">
+      <c r="V18">
         <v>30</v>
       </c>
-      <c r="N18">
+      <c r="W18">
         <v>25</v>
       </c>
-      <c r="O18" t="s">
+      <c r="X18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2613,43 +3327,78 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="1">
+        <v>106</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="1">
         <v>71.5</v>
       </c>
-      <c r="F19" s="3">
+      <c r="O19" s="3">
         <v>151</v>
       </c>
-      <c r="G19" s="1">
+      <c r="P19" s="1">
         <v>271</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
         <v>53</v>
       </c>
-      <c r="K19">
+      <c r="T19">
         <v>5</v>
       </c>
-      <c r="L19">
+      <c r="U19">
         <v>40</v>
       </c>
-      <c r="M19">
+      <c r="V19">
         <v>30</v>
       </c>
-      <c r="N19">
+      <c r="W19">
         <v>25</v>
       </c>
-      <c r="O19" t="s">
+      <c r="X19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2662,41 +3411,76 @@
       <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="1">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="O20" s="3">
         <v>218</v>
       </c>
-      <c r="G20" s="3">
+      <c r="P20" s="3">
         <v>218</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
         <v>53</v>
       </c>
-      <c r="K20">
+      <c r="T20">
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="U20">
         <v>40</v>
       </c>
-      <c r="M20">
+      <c r="V20">
         <v>30</v>
       </c>
-      <c r="N20">
+      <c r="W20">
         <v>25</v>
       </c>
-      <c r="O20" t="s">
+      <c r="X20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2707,43 +3491,78 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="1">
+        <v>105</v>
+      </c>
+      <c r="E21">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="1">
         <v>200</v>
       </c>
-      <c r="F21" s="2">
+      <c r="O21" s="2">
         <v>218</v>
       </c>
-      <c r="G21" s="19">
+      <c r="P21" s="19">
         <v>351</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
         <v>53</v>
       </c>
-      <c r="K21">
+      <c r="T21">
         <v>5</v>
       </c>
-      <c r="L21">
+      <c r="U21">
         <v>40</v>
       </c>
-      <c r="M21">
+      <c r="V21">
         <v>30</v>
       </c>
-      <c r="N21">
+      <c r="W21">
         <v>25</v>
       </c>
-      <c r="O21" t="s">
+      <c r="X21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2756,41 +3575,76 @@
       <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="1">
         <v>71.5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="O22" s="3">
         <v>151</v>
       </c>
-      <c r="G22" s="3">
+      <c r="P22" s="3">
         <v>151</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
         <v>53</v>
       </c>
-      <c r="K22">
+      <c r="T22">
         <v>5</v>
       </c>
-      <c r="L22">
+      <c r="U22">
         <v>40</v>
       </c>
-      <c r="M22">
+      <c r="V22">
         <v>30</v>
       </c>
-      <c r="N22">
+      <c r="W22">
         <v>25</v>
       </c>
-      <c r="O22" t="s">
+      <c r="X22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2801,43 +3655,78 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="1">
+        <v>105</v>
+      </c>
+      <c r="E23">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="1">
         <v>71.5</v>
       </c>
-      <c r="F23" s="3">
+      <c r="O23" s="3">
         <v>151</v>
       </c>
-      <c r="G23" s="19">
+      <c r="P23" s="19">
         <v>288</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
         <v>53</v>
       </c>
-      <c r="K23">
+      <c r="T23">
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="U23">
         <v>40</v>
       </c>
-      <c r="M23">
+      <c r="V23">
         <v>30</v>
       </c>
-      <c r="N23">
+      <c r="W23">
         <v>25</v>
       </c>
-      <c r="O23" t="s">
+      <c r="X23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2848,43 +3737,78 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="1">
+      <c r="N24" s="1">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="O24" s="3">
         <v>218</v>
       </c>
-      <c r="G24" s="1">
+      <c r="P24" s="1">
         <v>582</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>53</v>
       </c>
-      <c r="K24">
+      <c r="T24">
         <v>5</v>
       </c>
-      <c r="L24">
+      <c r="U24">
         <v>4</v>
       </c>
-      <c r="M24">
+      <c r="V24">
         <v>30</v>
       </c>
-      <c r="N24">
+      <c r="W24">
         <v>25</v>
       </c>
-      <c r="O24" t="s">
+      <c r="X24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2895,43 +3819,78 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="1">
+        <v>107</v>
+      </c>
+      <c r="E25">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="1">
         <v>200</v>
       </c>
-      <c r="F25" s="2">
+      <c r="O25" s="2">
         <v>218</v>
       </c>
-      <c r="G25" s="19">
+      <c r="P25" s="19">
         <v>609</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
         <v>53</v>
       </c>
-      <c r="K25">
+      <c r="T25">
         <v>5</v>
       </c>
-      <c r="L25">
+      <c r="U25">
         <v>40</v>
       </c>
-      <c r="M25">
+      <c r="V25">
         <v>30</v>
       </c>
-      <c r="N25">
+      <c r="W25">
         <v>25</v>
       </c>
-      <c r="O25" t="s">
+      <c r="X25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2942,43 +3901,78 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="1">
+        <v>108</v>
+      </c>
+      <c r="E26">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="1">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="O26" s="3">
         <v>218</v>
       </c>
-      <c r="G26" s="1">
+      <c r="P26" s="1">
         <v>291</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
         <v>53</v>
       </c>
-      <c r="K26">
+      <c r="T26">
         <v>5</v>
       </c>
-      <c r="L26">
+      <c r="U26">
         <v>40</v>
       </c>
-      <c r="M26">
+      <c r="V26">
         <v>30</v>
       </c>
-      <c r="N26">
+      <c r="W26">
         <v>25</v>
       </c>
-      <c r="O26" t="s">
+      <c r="X26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2989,43 +3983,78 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="1">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="1">
         <v>71.5</v>
       </c>
-      <c r="F27" s="3">
+      <c r="O27" s="3">
         <v>151</v>
       </c>
-      <c r="G27" s="19">
+      <c r="P27" s="19">
         <v>230</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
         <v>53</v>
       </c>
-      <c r="K27">
+      <c r="T27">
         <v>5</v>
       </c>
-      <c r="L27">
+      <c r="U27">
         <v>40</v>
       </c>
-      <c r="M27">
+      <c r="V27">
         <v>30</v>
       </c>
-      <c r="N27">
+      <c r="W27">
         <v>25</v>
       </c>
-      <c r="O27" t="s">
+      <c r="X27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3038,41 +4067,76 @@
       <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" s="1">
         <v>200</v>
       </c>
-      <c r="F28">
+      <c r="O28">
         <v>221</v>
       </c>
-      <c r="G28" s="1">
+      <c r="P28" s="1">
         <v>266</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
         <v>53</v>
       </c>
-      <c r="K28">
+      <c r="T28">
         <v>2.4</v>
       </c>
-      <c r="L28">
+      <c r="U28">
         <v>40</v>
       </c>
-      <c r="M28">
+      <c r="V28">
         <v>30</v>
       </c>
-      <c r="N28">
+      <c r="W28">
         <v>25</v>
       </c>
-      <c r="O28" t="s">
+      <c r="X28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3086,40 +4150,75 @@
         <v>10</v>
       </c>
       <c r="E29">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29">
         <v>100</v>
       </c>
-      <c r="F29">
+      <c r="O29">
         <v>230</v>
       </c>
-      <c r="G29">
+      <c r="P29">
         <v>230</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
         <v>53</v>
       </c>
-      <c r="K29">
+      <c r="T29">
         <v>3.2</v>
       </c>
-      <c r="L29">
+      <c r="U29">
         <v>40</v>
       </c>
-      <c r="M29">
+      <c r="V29">
         <v>30</v>
       </c>
-      <c r="N29">
+      <c r="W29">
         <v>25</v>
       </c>
-      <c r="O29" t="s">
+      <c r="X29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3133,40 +4232,75 @@
         <v>10</v>
       </c>
       <c r="E30">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30">
         <v>100</v>
       </c>
-      <c r="F30">
+      <c r="O30">
         <v>230</v>
       </c>
-      <c r="G30">
+      <c r="P30">
         <v>230</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
         <v>53</v>
       </c>
-      <c r="K30">
+      <c r="T30">
         <v>3.2</v>
       </c>
-      <c r="L30">
+      <c r="U30">
         <v>2</v>
       </c>
-      <c r="M30">
+      <c r="V30">
         <v>30</v>
       </c>
-      <c r="N30">
+      <c r="W30">
         <v>25</v>
       </c>
-      <c r="O30" t="s">
+      <c r="X30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3180,40 +4314,75 @@
         <v>10</v>
       </c>
       <c r="E31">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31">
         <v>100</v>
       </c>
-      <c r="F31">
+      <c r="O31">
         <v>230</v>
       </c>
-      <c r="G31">
+      <c r="P31">
         <v>230</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
         <v>53</v>
       </c>
-      <c r="K31">
+      <c r="T31">
         <v>3.2</v>
       </c>
-      <c r="L31">
+      <c r="U31">
         <v>40</v>
       </c>
-      <c r="M31">
+      <c r="V31">
         <v>1440</v>
       </c>
-      <c r="N31">
+      <c r="W31">
         <v>25</v>
       </c>
-      <c r="O31" t="s">
+      <c r="X31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3227,40 +4396,75 @@
         <v>10</v>
       </c>
       <c r="E32">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32">
         <v>100</v>
       </c>
-      <c r="F32">
+      <c r="O32">
         <v>230</v>
       </c>
-      <c r="G32">
+      <c r="P32">
         <v>230</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
         <v>53</v>
       </c>
-      <c r="K32">
+      <c r="T32">
         <v>3.2</v>
       </c>
-      <c r="L32">
+      <c r="U32">
         <v>2</v>
       </c>
-      <c r="M32">
+      <c r="V32">
         <v>1440</v>
       </c>
-      <c r="N32">
+      <c r="W32">
         <v>25</v>
       </c>
-      <c r="O32" t="s">
+      <c r="X32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3274,40 +4478,75 @@
         <v>10</v>
       </c>
       <c r="E33">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33">
         <v>100</v>
       </c>
-      <c r="F33">
+      <c r="O33">
         <v>230</v>
       </c>
-      <c r="G33">
+      <c r="P33">
         <v>230</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
         <v>53</v>
       </c>
-      <c r="K33">
+      <c r="T33">
         <v>3.2</v>
       </c>
-      <c r="L33">
+      <c r="U33">
         <v>4</v>
       </c>
-      <c r="M33">
+      <c r="V33">
         <v>1440</v>
       </c>
-      <c r="N33">
+      <c r="W33">
         <v>25</v>
       </c>
-      <c r="O33" t="s">
+      <c r="X33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3320,41 +4559,76 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="1">
         <v>50</v>
       </c>
-      <c r="F34" s="1">
+      <c r="O34" s="1">
         <v>105</v>
       </c>
-      <c r="G34" s="1">
+      <c r="P34" s="1">
         <v>105</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
         <v>53</v>
       </c>
-      <c r="K34">
+      <c r="T34">
         <v>3.2</v>
       </c>
-      <c r="L34">
+      <c r="U34">
         <v>40</v>
       </c>
-      <c r="M34">
+      <c r="V34">
         <v>1440</v>
       </c>
-      <c r="N34">
+      <c r="W34">
         <v>25</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="X34" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3367,41 +4641,76 @@
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="1">
         <v>50</v>
       </c>
-      <c r="F35" s="1">
+      <c r="O35" s="1">
         <v>105</v>
       </c>
-      <c r="G35" s="1">
+      <c r="P35" s="1">
         <v>105</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
         <v>53</v>
       </c>
-      <c r="K35">
+      <c r="T35">
         <v>3.2</v>
       </c>
-      <c r="L35">
+      <c r="U35">
         <v>4</v>
       </c>
-      <c r="M35">
+      <c r="V35">
         <v>1440</v>
       </c>
-      <c r="N35">
+      <c r="W35">
         <v>25</v>
       </c>
-      <c r="O35" s="18" t="s">
+      <c r="X35" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3414,41 +4723,76 @@
       <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="1">
         <v>50</v>
       </c>
-      <c r="F36" s="1">
+      <c r="O36" s="1">
         <v>105</v>
       </c>
-      <c r="G36" s="1">
+      <c r="P36" s="1">
         <v>105</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
         <v>53</v>
       </c>
-      <c r="K36">
+      <c r="T36">
         <v>3.2</v>
       </c>
-      <c r="L36">
+      <c r="U36">
         <v>40</v>
       </c>
-      <c r="M36">
+      <c r="V36">
         <v>30</v>
       </c>
-      <c r="N36">
+      <c r="W36">
         <v>25</v>
       </c>
-      <c r="O36" s="17" t="s">
+      <c r="X36" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3461,41 +4805,77 @@
       <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Carboxylate*")</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*BSA*")</f>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Amine*")</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Citrate*")</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEG*")</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PEI*")</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*PVP*")</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>COUNTIF(Table1[[#This Row],[Ligands]],"*Au*")</f>
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="1">
         <v>50</v>
       </c>
-      <c r="F37" s="1">
+      <c r="O37" s="1">
         <v>105</v>
       </c>
-      <c r="G37" s="1">
+      <c r="P37" s="1">
         <v>105</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
         <v>53</v>
       </c>
-      <c r="K37">
+      <c r="T37">
         <v>3.2</v>
       </c>
-      <c r="L37">
+      <c r="U37">
         <v>4</v>
       </c>
-      <c r="M37">
+      <c r="V37">
         <v>30</v>
       </c>
-      <c r="N37">
+      <c r="W37">
         <v>25</v>
       </c>
-      <c r="O37" s="18" t="s">
+      <c r="X37" s="18" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A4602E-EB63-4807-8EF7-A99239E03E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08157745-6B1B-4FE5-9A14-7D0056D1973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="110">
   <si>
     <t>NPID</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Citrate_PEI_Au_PEI</t>
+  </si>
+  <si>
+    <t>BatchID</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -523,6 +526,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,19 +942,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="5" width="35.85546875" customWidth="1"/>
+    <col min="4" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -961,10 +968,13 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -977,11 +987,14 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
         <v>67501</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -994,11 +1007,14 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
         <v>67502</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1011,11 +1027,14 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <v>67503</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1028,11 +1047,14 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
         <v>71435</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1045,11 +1067,14 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
         <v>71438</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1062,11 +1087,14 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
         <v>71441</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1079,11 +1107,14 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
         <v>72281</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1096,11 +1127,14 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13">
         <v>72282</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1113,11 +1147,14 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
         <v>72283</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1130,11 +1167,14 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13">
         <v>72278</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1147,11 +1187,14 @@
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
         <v>72279</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1164,11 +1207,14 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
         <v>72280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1181,11 +1227,14 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
         <v>72275</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1198,11 +1247,14 @@
       <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13">
         <v>72276</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1215,11 +1267,14 @@
       <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12">
         <v>72277</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1232,11 +1287,14 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12">
         <v>72287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1249,11 +1307,14 @@
       <c r="D18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="21">
+        <v>3</v>
+      </c>
+      <c r="F18" s="15">
         <v>101054</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1266,11 +1327,14 @@
       <c r="D19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="21">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16">
         <v>101055</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1283,11 +1347,14 @@
       <c r="D20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="21">
+        <v>3</v>
+      </c>
+      <c r="F20" s="15">
         <v>101056</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1300,11 +1367,14 @@
       <c r="D21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16">
         <v>101057</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1317,11 +1387,14 @@
       <c r="D22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="21">
+        <v>3</v>
+      </c>
+      <c r="F22" s="15">
         <v>101058</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1334,11 +1407,14 @@
       <c r="D23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="21">
+        <v>3</v>
+      </c>
+      <c r="F23" s="16">
         <v>101059</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1351,11 +1427,14 @@
       <c r="D24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="21">
+        <v>3</v>
+      </c>
+      <c r="F24" s="15">
         <v>101060</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1368,11 +1447,14 @@
       <c r="D25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="21">
+        <v>3</v>
+      </c>
+      <c r="F25" s="16">
         <v>101061</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1385,11 +1467,14 @@
       <c r="D26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="21">
+        <v>3</v>
+      </c>
+      <c r="F26" s="15">
         <v>101062</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1402,11 +1487,14 @@
       <c r="D27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="21">
+        <v>3</v>
+      </c>
+      <c r="F27" s="16">
         <v>101063</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1419,11 +1507,14 @@
       <c r="D28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="21">
+        <v>3</v>
+      </c>
+      <c r="F28" s="15">
         <v>101064</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1436,11 +1527,14 @@
       <c r="D29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="21">
+        <v>3</v>
+      </c>
+      <c r="F29" s="16">
         <v>101065</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1453,11 +1547,14 @@
       <c r="D30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="21">
+        <v>3</v>
+      </c>
+      <c r="F30" s="15">
         <v>101066</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1470,11 +1567,14 @@
       <c r="D31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="21">
+        <v>3</v>
+      </c>
+      <c r="F31" s="16">
         <v>101067</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1487,11 +1587,14 @@
       <c r="D32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="21">
+        <v>3</v>
+      </c>
+      <c r="F32" s="15">
         <v>101068</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1504,11 +1607,14 @@
       <c r="D33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="21">
+        <v>3</v>
+      </c>
+      <c r="F33" s="16">
         <v>101069</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1521,11 +1627,14 @@
       <c r="D34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="21">
+        <v>3</v>
+      </c>
+      <c r="F34" s="15">
         <v>101070</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1538,11 +1647,14 @@
       <c r="D35" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="21">
+        <v>3</v>
+      </c>
+      <c r="F35" s="16">
         <v>101071</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1555,11 +1667,14 @@
       <c r="D36" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="21">
+        <v>3</v>
+      </c>
+      <c r="F36" s="15">
         <v>101072</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1572,11 +1687,14 @@
       <c r="D37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="13">
         <v>67504</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1589,11 +1707,14 @@
       <c r="D38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="12">
         <v>67505</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1606,11 +1727,14 @@
       <c r="D39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="13">
         <v>67506</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1623,11 +1747,14 @@
       <c r="D40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="3">
+        <v>5</v>
+      </c>
+      <c r="F40" s="12">
         <v>68393</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1640,11 +1767,14 @@
       <c r="D41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="12">
         <v>68395</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1657,11 +1787,14 @@
       <c r="D42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="3">
+        <v>5</v>
+      </c>
+      <c r="F42" s="13">
         <v>68396</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1674,11 +1807,14 @@
       <c r="D43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="12">
         <v>68397</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1691,11 +1827,14 @@
       <c r="D44" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="20">
+        <v>6</v>
+      </c>
+      <c r="F44" s="13">
         <v>65143</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1708,11 +1847,14 @@
       <c r="D45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="20">
+        <v>6</v>
+      </c>
+      <c r="F45" s="12">
         <v>65141</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1725,11 +1867,14 @@
       <c r="D46" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="20">
+        <v>6</v>
+      </c>
+      <c r="F46" s="13">
         <v>65142</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1742,11 +1887,14 @@
       <c r="D47" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="20">
+        <v>6</v>
+      </c>
+      <c r="F47" s="12">
         <v>65140</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1759,11 +1907,14 @@
       <c r="D48" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="20">
+        <v>6</v>
+      </c>
+      <c r="F48" s="13">
         <v>65139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1776,11 +1927,14 @@
       <c r="D49" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="20">
+        <v>6</v>
+      </c>
+      <c r="F49" s="12">
         <v>65137</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1793,11 +1947,14 @@
       <c r="D50" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="20">
+        <v>6</v>
+      </c>
+      <c r="F50" s="13">
         <v>65138</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1810,7 +1967,10 @@
       <c r="D51" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="20">
+        <v>6</v>
+      </c>
+      <c r="F51" s="12">
         <v>65136</v>
       </c>
     </row>
@@ -1823,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1993,7 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="92" customWidth="1"/>
     <col min="5" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08157745-6B1B-4FE5-9A14-7D0056D1973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E813247E-9A9F-4E6E-B5DB-32E0754C061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="17640" windowHeight="11385" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -526,10 +526,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1983,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E813247E-9A9F-4E6E-B5DB-32E0754C061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373019D0-081F-45EA-8B38-A53F5F519C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1950" windowWidth="17640" windowHeight="11385" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
   <si>
     <t>NPID</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>BatchID</t>
+  </si>
+  <si>
+    <t>Corona_Concentration (ug/mg)</t>
   </si>
 </sst>
 </file>
@@ -594,12 +597,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:X37" totalsRowShown="0">
-  <autoFilter ref="A1:X37" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:Y37" totalsRowShown="0">
+  <autoFilter ref="A1:Y37" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y29">
     <sortCondition ref="A1:A29"/>
   </sortState>
-  <tableColumns count="24">
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{173B7694-AC4F-448F-AE9B-AF8A1B6CF15E}" name="NPID"/>
     <tableColumn id="2" xr3:uid="{B4AFAB4A-6882-41B3-8AA5-4A8C9B388892}" name="Zeta Potential"/>
     <tableColumn id="3" xr3:uid="{0324E036-7D0E-48DC-8A43-D550C12B4897}" name="Core Material" dataDxfId="8"/>
@@ -637,6 +640,7 @@
     <tableColumn id="11" xr3:uid="{1E5D7E63-DC81-492E-BE1D-5F4CFE24426F}" name="Protein Source"/>
     <tableColumn id="12" xr3:uid="{E3E250E7-C44D-404F-ACBB-563A0C50246A}" name="NP_incubation Concentration (mg/mL)"/>
     <tableColumn id="13" xr3:uid="{12C54116-DC07-4A62-B593-22B0D11006CC}" name="Incubation Concentration (mg/ml)"/>
+    <tableColumn id="26" xr3:uid="{3AEB3E39-0134-4C8F-9F5A-FAB3F8D3AB70}" name="Corona_Concentration (ug/mg)"/>
     <tableColumn id="14" xr3:uid="{0D9B1FA5-AEE0-443C-A486-9F058B268244}" name="Incubation Time (minutes)"/>
     <tableColumn id="15" xr3:uid="{897FC025-BFAE-4349-B965-074E680D9617}" name="Temperature"/>
     <tableColumn id="16" xr3:uid="{2E2BF4C1-EA9E-40CB-8C6A-16F39B07E599}" name="notes"/>
@@ -1981,32 +1985,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="92" customWidth="1"/>
-    <col min="5" max="12" width="15" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="12" width="15" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="19.140625" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" customWidth="1"/>
-    <col min="20" max="20" width="34.5703125" customWidth="1"/>
-    <col min="21" max="21" width="28.5703125" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="34.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="28.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
     <col min="23" max="23" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2071,16 +2075,19 @@
         <v>6</v>
       </c>
       <c r="V1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2152,17 +2159,17 @@
       <c r="U2">
         <v>4</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>30</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>25</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2234,17 +2241,17 @@
       <c r="U3">
         <v>4</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>30</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>25</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2317,17 +2324,17 @@
       <c r="U4">
         <v>4</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>30</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>25</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2400,17 +2407,17 @@
       <c r="U5">
         <v>4</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>30</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>25</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2482,17 +2489,17 @@
       <c r="U6">
         <v>4</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>30</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>25</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2564,17 +2571,17 @@
       <c r="U7">
         <v>0.2</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>60</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>25</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2646,17 +2653,17 @@
       <c r="U8">
         <v>0.2</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>60</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>25</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2728,17 +2735,17 @@
       <c r="U9">
         <v>0.2</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>60</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>25</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2810,17 +2817,17 @@
       <c r="U10">
         <v>0.2</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>60</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>25</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2892,17 +2899,17 @@
       <c r="U11">
         <v>4</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>30</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>25</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2974,17 +2981,17 @@
       <c r="U12">
         <v>40</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>30</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>25</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3057,16 +3064,19 @@
         <v>4</v>
       </c>
       <c r="V13">
+        <v>19.211443551314776</v>
+      </c>
+      <c r="W13">
         <v>30</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>25</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3139,16 +3149,19 @@
         <v>4</v>
       </c>
       <c r="V14">
+        <v>24.697213265470314</v>
+      </c>
+      <c r="W14">
         <v>30</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>25</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3221,16 +3234,19 @@
         <v>4</v>
       </c>
       <c r="V15">
+        <v>122.77358748181068</v>
+      </c>
+      <c r="W15">
         <v>30</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>25</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3303,16 +3319,19 @@
         <v>4</v>
       </c>
       <c r="V16">
+        <v>52.085491836566653</v>
+      </c>
+      <c r="W16">
         <v>30</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>25</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3385,16 +3404,19 @@
         <v>40</v>
       </c>
       <c r="V17">
+        <v>56.774263515388803</v>
+      </c>
+      <c r="W17">
         <v>30</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>25</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3467,16 +3489,19 @@
         <v>4</v>
       </c>
       <c r="V18">
+        <v>84.744561111989469</v>
+      </c>
+      <c r="W18">
         <v>30</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>25</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3549,16 +3574,19 @@
         <v>40</v>
       </c>
       <c r="V19">
+        <v>51.82074469458388</v>
+      </c>
+      <c r="W19">
         <v>30</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>25</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3631,16 +3659,19 @@
         <v>40</v>
       </c>
       <c r="V20">
+        <v>73.474470545260843</v>
+      </c>
+      <c r="W20">
         <v>30</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>25</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3713,16 +3744,19 @@
         <v>40</v>
       </c>
       <c r="V21">
+        <v>123.1404321436508</v>
+      </c>
+      <c r="W21">
         <v>30</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>25</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3795,16 +3829,19 @@
         <v>40</v>
       </c>
       <c r="V22">
+        <v>35.981901368278493</v>
+      </c>
+      <c r="W22">
         <v>30</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>25</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3877,16 +3914,19 @@
         <v>40</v>
       </c>
       <c r="V23">
+        <v>507.35714425150735</v>
+      </c>
+      <c r="W23">
         <v>30</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>25</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3959,16 +3999,19 @@
         <v>4</v>
       </c>
       <c r="V24">
+        <v>27.929766871894959</v>
+      </c>
+      <c r="W24">
         <v>30</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>25</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4041,16 +4084,19 @@
         <v>40</v>
       </c>
       <c r="V25">
+        <v>25.108957503563726</v>
+      </c>
+      <c r="W25">
         <v>30</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>25</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4123,16 +4169,19 @@
         <v>40</v>
       </c>
       <c r="V26">
+        <v>115.65964076253495</v>
+      </c>
+      <c r="W26">
         <v>30</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>25</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4205,16 +4254,19 @@
         <v>40</v>
       </c>
       <c r="V27">
+        <v>59.099291972694779</v>
+      </c>
+      <c r="W27">
         <v>30</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>25</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4286,17 +4338,17 @@
       <c r="U28">
         <v>40</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>30</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>25</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4368,17 +4420,17 @@
       <c r="U29">
         <v>40</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>30</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>25</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4450,17 +4502,17 @@
       <c r="U30">
         <v>2</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>30</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>25</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4532,17 +4584,17 @@
       <c r="U31">
         <v>40</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1440</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>25</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4614,17 +4666,17 @@
       <c r="U32">
         <v>2</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1440</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>25</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4696,17 +4748,17 @@
       <c r="U33">
         <v>4</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1440</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>25</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4778,17 +4830,17 @@
       <c r="U34">
         <v>40</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1440</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>25</v>
       </c>
-      <c r="X34" s="17" t="s">
+      <c r="Y34" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4860,17 +4912,17 @@
       <c r="U35">
         <v>4</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1440</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>25</v>
       </c>
-      <c r="X35" s="18" t="s">
+      <c r="Y35" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4942,17 +4994,17 @@
       <c r="U36">
         <v>40</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>30</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>25</v>
       </c>
-      <c r="X36" s="17" t="s">
+      <c r="Y36" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5024,13 +5076,13 @@
       <c r="U37">
         <v>4</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>30</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>25</v>
       </c>
-      <c r="X37" s="18" t="s">
+      <c r="Y37" s="18" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373019D0-081F-45EA-8B38-A53F5F519C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED7702A-8859-4753-8F6D-D58B51DCCCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S10" sqref="P9:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,17 +1996,16 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="12" width="15" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="19.140625" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="8.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="16" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="34.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="34.5703125" customWidth="1"/>
+    <col min="21" max="22" width="28.5703125" customWidth="1"/>
     <col min="23" max="23" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Input_data/NPs/NP_Database.xlsx
+++ b/Input_data/NPs/NP_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED7702A-8859-4753-8F6D-D58B51DCCCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A939020-8077-465C-89A0-562D1C93ABBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
   <si>
     <t>NPID</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Corona_Concentration (ug/mg)</t>
+  </si>
+  <si>
+    <t>ProteinID</t>
   </si>
 </sst>
 </file>
@@ -597,12 +600,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:Y37" totalsRowShown="0">
-  <autoFilter ref="A1:Y37" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}" name="Table1" displayName="Table1" ref="A1:Z37" totalsRowShown="0">
+  <autoFilter ref="A1:Z37" xr:uid="{E048F05F-71E8-4C64-93E3-98D61C308956}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z29">
     <sortCondition ref="A1:A29"/>
   </sortState>
-  <tableColumns count="25">
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{173B7694-AC4F-448F-AE9B-AF8A1B6CF15E}" name="NPID"/>
     <tableColumn id="2" xr3:uid="{B4AFAB4A-6882-41B3-8AA5-4A8C9B388892}" name="Zeta Potential"/>
     <tableColumn id="3" xr3:uid="{0324E036-7D0E-48DC-8A43-D550C12B4897}" name="Core Material" dataDxfId="8"/>
@@ -637,6 +640,7 @@
     <tableColumn id="8" xr3:uid="{64DEA1B6-3494-4A4C-9E99-737D17B9DADB}" name="Dh_functionalized"/>
     <tableColumn id="9" xr3:uid="{546409C4-E99C-4804-9742-95397F967656}" name="Shaken"/>
     <tableColumn id="10" xr3:uid="{3F74D121-1814-44F4-A42C-2BB996DE1C27}" name="Centrifuged"/>
+    <tableColumn id="25" xr3:uid="{F4E6837F-B682-4BDA-9C28-99C5B8B4A278}" name="ProteinID"/>
     <tableColumn id="11" xr3:uid="{1E5D7E63-DC81-492E-BE1D-5F4CFE24426F}" name="Protein Source"/>
     <tableColumn id="12" xr3:uid="{E3E250E7-C44D-404F-ACBB-563A0C50246A}" name="NP_incubation Concentration (mg/mL)"/>
     <tableColumn id="13" xr3:uid="{12C54116-DC07-4A62-B593-22B0D11006CC}" name="Incubation Concentration (mg/ml)"/>
@@ -1985,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S10" sqref="P9:S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,14 +2006,14 @@
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="8.140625" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="34.5703125" customWidth="1"/>
-    <col min="21" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="26.28515625" customWidth="1"/>
+    <col min="18" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="34.5703125" customWidth="1"/>
+    <col min="22" max="23" width="28.5703125" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2065,28 +2069,31 @@
         <v>5</v>
       </c>
       <c r="S1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>110</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2149,26 +2156,29 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3.2</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>30</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>25</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2231,26 +2241,29 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>53</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
       </c>
       <c r="U3">
         <v>4</v>
       </c>
-      <c r="W3">
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="X3">
         <v>30</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>25</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2314,26 +2327,29 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
         <v>53</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
       </c>
       <c r="U4">
         <v>4</v>
       </c>
-      <c r="W4">
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="X4">
         <v>30</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>25</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2397,26 +2413,29 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
         <v>53</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
       </c>
       <c r="U5">
         <v>4</v>
       </c>
-      <c r="W5">
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="X5">
         <v>30</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>25</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2479,26 +2498,29 @@
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
         <v>53</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
       </c>
       <c r="U6">
         <v>4</v>
       </c>
-      <c r="W6">
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="X6">
         <v>30</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>25</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2561,26 +2583,29 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
         <v>55</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>62.5</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.2</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>60</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>25</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2643,26 +2668,29 @@
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
         <v>55</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>125</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.2</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>60</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>25</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2725,26 +2753,29 @@
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
         <v>55</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>200</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.2</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>60</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>25</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2807,26 +2838,29 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
         <v>55</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>25</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.2</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>60</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>25</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2889,26 +2923,29 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
         <v>53</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
       </c>
       <c r="U11">
         <v>4</v>
       </c>
-      <c r="W11">
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="X11">
         <v>30</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>25</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2971,26 +3008,29 @@
       <c r="R12">
         <v>1</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
         <v>53</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>4</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>40</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>30</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>25</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3038,14 +3078,14 @@
       <c r="M13" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="1">
-        <v>71.5</v>
+      <c r="N13">
+        <v>82</v>
       </c>
       <c r="O13" s="4">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P13" s="4">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3053,29 +3093,32 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
         <v>53</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>5</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>4</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>19.211443551314776</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>30</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>25</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3123,14 +3166,14 @@
       <c r="M14" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="1">
-        <v>200</v>
-      </c>
-      <c r="O14" s="3">
-        <v>218</v>
-      </c>
-      <c r="P14" s="3">
-        <v>218</v>
+      <c r="N14">
+        <v>182</v>
+      </c>
+      <c r="O14">
+        <v>229</v>
+      </c>
+      <c r="P14">
+        <v>229</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3138,29 +3181,32 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
         <v>53</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>5</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>4</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>24.697213265470314</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>30</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>25</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3208,14 +3254,14 @@
       <c r="M15" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="O15" s="2">
-        <v>151</v>
-      </c>
-      <c r="P15" s="19">
-        <v>288</v>
+      <c r="N15">
+        <v>82</v>
+      </c>
+      <c r="O15" s="4">
+        <v>149</v>
+      </c>
+      <c r="P15">
+        <v>226</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3223,29 +3269,32 @@
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
         <v>53</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>5</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>4</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>122.77358748181068</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>30</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>25</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3293,14 +3342,14 @@
       <c r="M16" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="1">
-        <v>200</v>
+      <c r="N16">
+        <v>182</v>
       </c>
       <c r="O16">
-        <v>218</v>
-      </c>
-      <c r="P16" s="1">
-        <v>351</v>
+        <v>229</v>
+      </c>
+      <c r="P16">
+        <v>282</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3308,29 +3357,32 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
         <v>53</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>5</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>4</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>52.085491836566653</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>30</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>25</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3378,14 +3430,14 @@
       <c r="M17" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="1">
-        <v>200</v>
-      </c>
-      <c r="O17" s="2">
-        <v>218</v>
-      </c>
-      <c r="P17" s="19">
-        <v>582</v>
+      <c r="N17">
+        <v>182</v>
+      </c>
+      <c r="O17">
+        <v>229</v>
+      </c>
+      <c r="P17">
+        <v>316</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -3393,29 +3445,32 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
         <v>53</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>5</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>40</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>56.774263515388803</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>30</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>25</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3463,13 +3518,13 @@
       <c r="M18" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="O18" s="3">
-        <v>151</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="N18">
+        <v>98</v>
+      </c>
+      <c r="O18">
+        <v>149</v>
+      </c>
+      <c r="P18">
         <v>271</v>
       </c>
       <c r="Q18">
@@ -3478,29 +3533,32 @@
       <c r="R18">
         <v>0</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
         <v>53</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>5</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>84.744561111989469</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>30</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>25</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3548,13 +3606,13 @@
       <c r="M19" t="s">
         <v>94</v>
       </c>
-      <c r="N19" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="O19" s="3">
-        <v>151</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="N19">
+        <v>98</v>
+      </c>
+      <c r="O19" s="4">
+        <v>149</v>
+      </c>
+      <c r="P19">
         <v>271</v>
       </c>
       <c r="Q19">
@@ -3563,29 +3621,32 @@
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
         <v>53</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>5</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>40</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>51.82074469458388</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>30</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>25</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3633,11 +3694,11 @@
       <c r="M20" t="s">
         <v>57</v>
       </c>
-      <c r="N20" s="1">
-        <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>218</v>
+      <c r="N20">
+        <v>182</v>
+      </c>
+      <c r="O20">
+        <v>229</v>
       </c>
       <c r="P20" s="3">
         <v>218</v>
@@ -3648,29 +3709,32 @@
       <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
         <v>53</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>5</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>40</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>73.474470545260843</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>30</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>25</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3718,14 +3782,14 @@
       <c r="M21" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="1">
-        <v>200</v>
-      </c>
-      <c r="O21" s="2">
-        <v>218</v>
-      </c>
-      <c r="P21" s="19">
-        <v>351</v>
+      <c r="N21">
+        <v>182</v>
+      </c>
+      <c r="O21">
+        <v>229</v>
+      </c>
+      <c r="P21">
+        <v>282</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -3733,29 +3797,32 @@
       <c r="R21">
         <v>0</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
         <v>53</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>5</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>40</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>123.1404321436508</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>30</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>25</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3803,11 +3870,11 @@
       <c r="M22" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="O22" s="3">
-        <v>151</v>
+      <c r="N22">
+        <v>82</v>
+      </c>
+      <c r="O22">
+        <v>149</v>
       </c>
       <c r="P22" s="3">
         <v>151</v>
@@ -3818,29 +3885,32 @@
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
         <v>53</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>5</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>40</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>35.981901368278493</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>30</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>25</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3888,13 +3958,13 @@
       <c r="M23" t="s">
         <v>93</v>
       </c>
-      <c r="N23" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="O23" s="3">
-        <v>151</v>
-      </c>
-      <c r="P23" s="19">
+      <c r="N23">
+        <v>82</v>
+      </c>
+      <c r="O23" s="4">
+        <v>149</v>
+      </c>
+      <c r="P23">
         <v>288</v>
       </c>
       <c r="Q23">
@@ -3903,29 +3973,32 @@
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
         <v>53</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>5</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>40</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>507.35714425150735</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>30</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>25</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3973,14 +4046,14 @@
       <c r="M24" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="1">
-        <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>218</v>
-      </c>
-      <c r="P24" s="1">
-        <v>582</v>
+      <c r="N24">
+        <v>244</v>
+      </c>
+      <c r="O24">
+        <v>229</v>
+      </c>
+      <c r="P24">
+        <v>316</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -3988,29 +4061,32 @@
       <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
         <v>53</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>5</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>4</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>27.929766871894959</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>30</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>25</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4058,11 +4134,11 @@
       <c r="M25" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="1">
-        <v>200</v>
-      </c>
-      <c r="O25" s="2">
-        <v>218</v>
+      <c r="N25">
+        <v>244</v>
+      </c>
+      <c r="O25">
+        <v>229</v>
       </c>
       <c r="P25" s="19">
         <v>609</v>
@@ -4073,29 +4149,32 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
         <v>53</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>5</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>40</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>25.108957503563726</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>30</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>25</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4143,13 +4222,13 @@
       <c r="M26" t="s">
         <v>93</v>
       </c>
-      <c r="N26" s="1">
-        <v>200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>218</v>
-      </c>
-      <c r="P26" s="1">
+      <c r="N26">
+        <v>244</v>
+      </c>
+      <c r="O26">
+        <v>229</v>
+      </c>
+      <c r="P26">
         <v>291</v>
       </c>
       <c r="Q26">
@@ -4158,29 +4237,32 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
         <v>53</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>5</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>40</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>115.65964076253495</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>30</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>25</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4228,14 +4310,14 @@
       <c r="M27" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="O27" s="3">
-        <v>151</v>
-      </c>
-      <c r="P27" s="19">
-        <v>230</v>
+      <c r="N27">
+        <v>98</v>
+      </c>
+      <c r="O27" s="4">
+        <v>149</v>
+      </c>
+      <c r="P27">
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -4243,29 +4325,32 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
         <v>53</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>5</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>40</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>59.099291972694779</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>30</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>25</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4319,7 +4404,7 @@
       <c r="O28">
         <v>221</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28">
         <v>266</v>
       </c>
       <c r="Q28">
@@ -4328,26 +4413,29 @@
       <c r="R28">
         <v>1</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
         <v>53</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2.4</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>40</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>30</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>25</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4410,26 +4498,29 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
         <v>53</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>3.2</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>40</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>30</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>25</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4492,26 +4583,29 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
         <v>53</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3.2</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>30</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>25</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4574,26 +4668,29 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
         <v>53</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>3.2</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>40</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1440</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>25</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4656,26 +4753,29 @@
       <c r="R32">
         <v>0</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
         <v>53</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>3.2</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1440</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>25</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4738,26 +4838,29 @@
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
         <v>53</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>3.2</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>4</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>1440</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>25</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4820,26 +4923,29 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
         <v>53</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>3.2</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>40</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>1440</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>25</v>
       </c>
-      <c r="Y34" s="17" t="s">
+      <c r="Z34" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4902,26 +5008,29 @@
       <c r="R35">
         <v>0</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
         <v>53</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>3.2</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>4</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>1440</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>25</v>
       </c>
-      <c r="Y35" s="18" t="s">
+      <c r="Z35" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4984,26 +5093,29 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
         <v>53</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>3.2</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>40</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>30</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>25</v>
       </c>
-      <c r="Y36" s="17" t="s">
+      <c r="Z36" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5066,22 +5178,25 @@
       <c r="R37">
         <v>0</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
         <v>53</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>3.2</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>4</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>30</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>25</v>
       </c>
-      <c r="Y37" s="18" t="s">
+      <c r="Z37" s="18" t="s">
         <v>72</v>
       </c>
     </row>
